--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sairajnayak/PycharmProjects/Team-Charlie-2024/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pyhton filed\pythonProject1\Team-Charlie-2024\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AFC432-0B28-8146-B3C7-CA9765D21E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2E0B5-6106-4F6A-BB11-A0D2CF08445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sparrows" sheetId="1" r:id="rId1"/>
+    <sheet name="Centurion" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Centurion!$A$1:$A$91</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="548">
   <si>
     <t>Id Number</t>
   </si>
@@ -1137,6 +1141,9 @@
     <t>23-935454</t>
   </si>
   <si>
+    <t>23-935404</t>
+  </si>
+  <si>
     <t>230516117023</t>
   </si>
   <si>
@@ -1289,38 +1296,431 @@
     <t>96-7A</t>
   </si>
   <si>
-    <t>23-935404</t>
+    <t>461915</t>
+  </si>
+  <si>
+    <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>500KG</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>28/07/2024</t>
+  </si>
+  <si>
+    <t>15146980</t>
+  </si>
+  <si>
+    <t>461916</t>
+  </si>
+  <si>
+    <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>Hackett</t>
+  </si>
+  <si>
+    <t>461920</t>
+  </si>
+  <si>
+    <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>TCB11</t>
+  </si>
+  <si>
+    <t>461926</t>
+  </si>
+  <si>
+    <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>1TE</t>
+  </si>
+  <si>
+    <t>461929</t>
+  </si>
+  <si>
+    <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>461938</t>
+  </si>
+  <si>
+    <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>ProCB</t>
+  </si>
+  <si>
+    <t>461963</t>
+  </si>
+  <si>
+    <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>800KG</t>
+  </si>
+  <si>
+    <t>461964</t>
+  </si>
+  <si>
+    <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>750KG</t>
+  </si>
+  <si>
+    <t>461965</t>
+  </si>
+  <si>
+    <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>461966</t>
+  </si>
+  <si>
+    <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>461974</t>
+  </si>
+  <si>
+    <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>3TE</t>
+  </si>
+  <si>
+    <t>461976</t>
+  </si>
+  <si>
+    <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+  </si>
+  <si>
+    <t>TRPA-32-00</t>
+  </si>
+  <si>
+    <t>3.2TE</t>
+  </si>
+  <si>
+    <t>15437</t>
+  </si>
+  <si>
+    <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
+  </si>
+  <si>
+    <t>404997</t>
+  </si>
+  <si>
+    <t>3T BEAM CLAMP</t>
+  </si>
+  <si>
+    <t>R42599</t>
+  </si>
+  <si>
+    <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
+  </si>
+  <si>
+    <t>182291</t>
+  </si>
+  <si>
+    <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
+  </si>
+  <si>
+    <t>S3A</t>
+  </si>
+  <si>
+    <t>5TE</t>
+  </si>
+  <si>
+    <t>25887</t>
+  </si>
+  <si>
+    <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
+  </si>
+  <si>
+    <t>S2AX</t>
+  </si>
+  <si>
+    <t>R30715</t>
+  </si>
+  <si>
+    <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
+  </si>
+  <si>
+    <t>R:39639</t>
+  </si>
+  <si>
+    <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
+  </si>
+  <si>
+    <t>USC5</t>
+  </si>
+  <si>
+    <t>2666070</t>
+  </si>
+  <si>
+    <t>5T TIGER BCU-0500 BEAM CLAMP</t>
+  </si>
+  <si>
+    <t>BCU-0500</t>
+  </si>
+  <si>
+    <t>462005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
+  </si>
+  <si>
+    <t>Trolley</t>
+  </si>
+  <si>
+    <t>3320</t>
+  </si>
+  <si>
+    <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
+  </si>
+  <si>
+    <t>BA1</t>
+  </si>
+  <si>
+    <t>A H17894/039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>462008</t>
+  </si>
+  <si>
+    <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
+  </si>
+  <si>
+    <t>2TH/FITTING</t>
+  </si>
+  <si>
+    <t>448186</t>
+  </si>
+  <si>
+    <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
+  </si>
+  <si>
+    <t>286857</t>
+  </si>
+  <si>
+    <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
+  </si>
+  <si>
+    <t>Yoke</t>
+  </si>
+  <si>
+    <t>SEE DESC</t>
+  </si>
+  <si>
+    <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
+  </si>
+  <si>
+    <t>McKissick</t>
+  </si>
+  <si>
+    <t>2777/11613</t>
+  </si>
+  <si>
+    <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
+  </si>
+  <si>
+    <t>140.00KG</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>14/07/2024</t>
+  </si>
+  <si>
+    <t>2777/15992</t>
+  </si>
+  <si>
+    <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
+  </si>
+  <si>
+    <t>RGL28</t>
+  </si>
+  <si>
+    <t>363607.1</t>
+  </si>
+  <si>
+    <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
+  </si>
+  <si>
+    <t>4.10TE</t>
+  </si>
+  <si>
+    <t>489877</t>
+  </si>
+  <si>
+    <t>379484.1</t>
+  </si>
+  <si>
+    <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
+  </si>
+  <si>
+    <t>32B6</t>
+  </si>
+  <si>
+    <t>17.10TE</t>
+  </si>
+  <si>
+    <t>80254963</t>
+  </si>
+  <si>
+    <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
+  </si>
+  <si>
+    <t>1.00TE</t>
+  </si>
+  <si>
+    <t>80268290</t>
+  </si>
+  <si>
+    <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
+  </si>
+  <si>
+    <t>12.00TE</t>
+  </si>
+  <si>
+    <t>80271412</t>
+  </si>
+  <si>
+    <t>80254965</t>
+  </si>
+  <si>
+    <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
+  </si>
+  <si>
+    <t>3.25TE</t>
+  </si>
+  <si>
+    <t>80267482</t>
+  </si>
+  <si>
+    <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
+  </si>
+  <si>
+    <t>365096.G</t>
+  </si>
+  <si>
+    <t>2 M10 0.33TE COLLAR EYEBOLT</t>
+  </si>
+  <si>
+    <t>0.33TE</t>
+  </si>
+  <si>
+    <t>370041.G</t>
+  </si>
+  <si>
+    <t>4 M30 4T HW COLLAR EYEBOLT</t>
+  </si>
+  <si>
+    <t>4.00TE</t>
+  </si>
+  <si>
+    <t>377757.G</t>
+  </si>
+  <si>
+    <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
+  </si>
+  <si>
+    <t>0.25TE</t>
+  </si>
+  <si>
+    <t>2023/950</t>
+  </si>
+  <si>
+    <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
+  </si>
+  <si>
+    <t>6.89TE</t>
+  </si>
+  <si>
+    <t>SEE DESC.</t>
+  </si>
+  <si>
+    <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>1.30TE</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+  </si>
+  <si>
+    <t>1.00T</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>27/07/2024</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>20 1TE 0.5M EWL ROUNDSLING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1330,6 +1730,22 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1354,7 +1770,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1381,12 +1797,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Cell 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1404,7 +1821,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1702,20 +2119,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.58203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
@@ -1725,7 +2142,7 @@
     <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +2224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -1842,7 +2259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +2294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +2329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -1947,7 +2364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
@@ -1982,7 +2399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
@@ -2052,7 +2469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -2084,7 +2501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
@@ -2115,7 +2532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -2146,7 +2563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
@@ -2181,7 +2598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
@@ -2216,7 +2633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>73</v>
       </c>
@@ -2251,7 +2668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>77</v>
       </c>
@@ -2286,7 +2703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>80</v>
       </c>
@@ -2321,7 +2738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>83</v>
       </c>
@@ -2356,7 +2773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>87</v>
       </c>
@@ -2391,7 +2808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
@@ -2426,7 +2843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>94</v>
       </c>
@@ -2461,7 +2878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>98</v>
       </c>
@@ -2496,7 +2913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>102</v>
       </c>
@@ -2531,7 +2948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>105</v>
       </c>
@@ -2566,7 +2983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>108</v>
       </c>
@@ -2601,7 +3018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
@@ -2634,7 +3051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>116</v>
       </c>
@@ -2669,7 +3086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>120</v>
       </c>
@@ -2704,7 +3121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>123</v>
       </c>
@@ -2739,7 +3156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>128</v>
       </c>
@@ -2770,7 +3187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -2803,7 +3220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -2836,7 +3253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -2869,7 +3286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -2902,7 +3319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -2935,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2968,7 +3385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -3001,7 +3418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -3034,7 +3451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -3067,7 +3484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -3100,7 +3517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -3133,7 +3550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3166,7 +3583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -3199,7 +3616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>155</v>
       </c>
@@ -3232,7 +3649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -3265,7 +3682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -3298,7 +3715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -3331,7 +3748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -3364,7 +3781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -3397,7 +3814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -3430,7 +3847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -3463,7 +3880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -3496,7 +3913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -3529,7 +3946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -3562,7 +3979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -3595,7 +4012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -3628,7 +4045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>171</v>
       </c>
@@ -3661,7 +4078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -3694,7 +4111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -3727,7 +4144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>175</v>
       </c>
@@ -3760,7 +4177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -3793,7 +4210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -3826,7 +4243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -3859,7 +4276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -3892,7 +4309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -3925,7 +4342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -3958,7 +4375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>183</v>
       </c>
@@ -3991,7 +4408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -4024,7 +4441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>185</v>
       </c>
@@ -4057,7 +4474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>189</v>
       </c>
@@ -4090,7 +4507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>190</v>
       </c>
@@ -4123,7 +4540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>191</v>
       </c>
@@ -4156,7 +4573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>192</v>
       </c>
@@ -4189,7 +4606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>193</v>
       </c>
@@ -4222,7 +4639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>194</v>
       </c>
@@ -4255,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>195</v>
       </c>
@@ -4288,7 +4705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>196</v>
       </c>
@@ -4321,7 +4738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>197</v>
       </c>
@@ -4354,7 +4771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>198</v>
       </c>
@@ -4387,7 +4804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>199</v>
       </c>
@@ -4420,7 +4837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>200</v>
       </c>
@@ -4453,7 +4870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>201</v>
       </c>
@@ -4486,7 +4903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>202</v>
       </c>
@@ -4519,7 +4936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>203</v>
       </c>
@@ -4552,7 +4969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>204</v>
       </c>
@@ -4585,7 +5002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>205</v>
       </c>
@@ -4618,7 +5035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>206</v>
       </c>
@@ -4651,7 +5068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>207</v>
       </c>
@@ -4684,7 +5101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>208</v>
       </c>
@@ -4717,7 +5134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>209</v>
       </c>
@@ -4750,7 +5167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>210</v>
       </c>
@@ -4783,7 +5200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>211</v>
       </c>
@@ -4816,7 +5233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>212</v>
       </c>
@@ -4849,7 +5266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>213</v>
       </c>
@@ -4882,7 +5299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>214</v>
       </c>
@@ -4915,7 +5332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>215</v>
       </c>
@@ -4948,7 +5365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>216</v>
       </c>
@@ -4981,7 +5398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>217</v>
       </c>
@@ -5014,7 +5431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>218</v>
       </c>
@@ -5047,7 +5464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>219</v>
       </c>
@@ -5080,7 +5497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>220</v>
       </c>
@@ -5113,7 +5530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>221</v>
       </c>
@@ -5146,7 +5563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>222</v>
       </c>
@@ -5179,7 +5596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -5212,7 +5629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>224</v>
       </c>
@@ -5243,7 +5660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -5274,7 +5691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>229</v>
       </c>
@@ -5305,7 +5722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>230</v>
       </c>
@@ -5336,7 +5753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>231</v>
       </c>
@@ -5367,7 +5784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -5398,7 +5815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>233</v>
       </c>
@@ -5431,7 +5848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -5464,7 +5881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -5497,7 +5914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -5530,7 +5947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -5563,7 +5980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>240</v>
       </c>
@@ -5596,7 +6013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -5629,7 +6046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -5662,7 +6079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>243</v>
       </c>
@@ -5695,7 +6112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>244</v>
       </c>
@@ -5728,7 +6145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -5759,7 +6176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>248</v>
       </c>
@@ -5790,7 +6207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>249</v>
       </c>
@@ -5821,7 +6238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -5852,7 +6269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>251</v>
       </c>
@@ -5883,7 +6300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>252</v>
       </c>
@@ -5914,7 +6331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -5945,7 +6362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>257</v>
       </c>
@@ -5976,7 +6393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -6007,7 +6424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -6038,7 +6455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -6073,7 +6490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>265</v>
       </c>
@@ -6108,7 +6525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -6141,7 +6558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -6170,7 +6587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>272</v>
       </c>
@@ -6199,7 +6616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>273</v>
       </c>
@@ -6228,7 +6645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>274</v>
       </c>
@@ -6256,7 +6673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -6289,7 +6706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>280</v>
       </c>
@@ -6322,7 +6739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -6355,7 +6772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -6388,7 +6805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -6421,7 +6838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -6454,7 +6871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -6487,7 +6904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -6520,7 +6937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>287</v>
       </c>
@@ -6553,7 +6970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>288</v>
       </c>
@@ -6586,7 +7003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>289</v>
       </c>
@@ -6619,7 +7036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>290</v>
       </c>
@@ -6652,7 +7069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>291</v>
       </c>
@@ -6685,7 +7102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>292</v>
       </c>
@@ -6718,7 +7135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>293</v>
       </c>
@@ -6751,7 +7168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -6784,7 +7201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -6817,7 +7234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>296</v>
       </c>
@@ -6850,7 +7267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>297</v>
       </c>
@@ -6883,7 +7300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>298</v>
       </c>
@@ -6916,7 +7333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>299</v>
       </c>
@@ -6949,7 +7366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>300</v>
       </c>
@@ -6982,7 +7399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>301</v>
       </c>
@@ -7015,7 +7432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>302</v>
       </c>
@@ -7048,7 +7465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>303</v>
       </c>
@@ -7083,7 +7500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>307</v>
       </c>
@@ -7118,7 +7535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -7153,7 +7570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>309</v>
       </c>
@@ -7188,7 +7605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>310</v>
       </c>
@@ -7221,7 +7638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>313</v>
       </c>
@@ -7254,7 +7671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>314</v>
       </c>
@@ -7287,7 +7704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>315</v>
       </c>
@@ -7320,7 +7737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>316</v>
       </c>
@@ -7353,7 +7770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>317</v>
       </c>
@@ -7386,7 +7803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>318</v>
       </c>
@@ -7419,7 +7836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>319</v>
       </c>
@@ -7452,7 +7869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>320</v>
       </c>
@@ -7485,7 +7902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>321</v>
       </c>
@@ -7518,7 +7935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>322</v>
       </c>
@@ -7551,7 +7968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>323</v>
       </c>
@@ -7584,7 +8001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>324</v>
       </c>
@@ -7617,7 +8034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>325</v>
       </c>
@@ -7650,7 +8067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>326</v>
       </c>
@@ -7683,7 +8100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>327</v>
       </c>
@@ -7716,7 +8133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>328</v>
       </c>
@@ -7747,7 +8164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>331</v>
       </c>
@@ -7778,7 +8195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>332</v>
       </c>
@@ -7809,7 +8226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>333</v>
       </c>
@@ -7842,7 +8259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>336</v>
       </c>
@@ -7875,7 +8292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>337</v>
       </c>
@@ -7908,7 +8325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>338</v>
       </c>
@@ -7941,7 +8358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>340</v>
       </c>
@@ -7974,7 +8391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>341</v>
       </c>
@@ -8007,7 +8424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>342</v>
       </c>
@@ -8040,7 +8457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>346</v>
       </c>
@@ -8073,7 +8490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>347</v>
       </c>
@@ -8106,7 +8523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>348</v>
       </c>
@@ -8139,7 +8556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>352</v>
       </c>
@@ -8172,7 +8589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>353</v>
       </c>
@@ -8205,7 +8622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>354</v>
       </c>
@@ -8238,7 +8655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>355</v>
       </c>
@@ -8271,7 +8688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>356</v>
       </c>
@@ -8304,7 +8721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>357</v>
       </c>
@@ -8337,7 +8754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>358</v>
       </c>
@@ -8370,7 +8787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>360</v>
       </c>
@@ -8403,7 +8820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>361</v>
       </c>
@@ -8436,7 +8853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>362</v>
       </c>
@@ -8469,7 +8886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>363</v>
       </c>
@@ -8502,7 +8919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>364</v>
       </c>
@@ -8535,9 +8952,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8568,9 +8985,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8578,14 +8995,14 @@
         <v>304</v>
       </c>
       <c r="E208" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H208" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I208" s="4"/>
       <c r="J208" s="1"/>
@@ -8601,9 +9018,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8611,14 +9028,14 @@
         <v>304</v>
       </c>
       <c r="E209" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H209" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I209" s="4"/>
       <c r="J209" s="1"/>
@@ -8634,9 +9051,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8644,14 +9061,14 @@
         <v>304</v>
       </c>
       <c r="E210" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H210" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I210" s="4"/>
       <c r="J210" s="1"/>
@@ -8667,9 +9084,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8677,14 +9094,14 @@
         <v>304</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H211" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I211" s="4"/>
       <c r="J211" s="1"/>
@@ -8700,14 +9117,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
@@ -8715,7 +9132,7 @@
       </c>
       <c r="G212" s="1"/>
       <c r="H212" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I212" s="4"/>
       <c r="J212" s="1"/>
@@ -8731,14 +9148,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1" t="s">
@@ -8746,7 +9163,7 @@
       </c>
       <c r="G213" s="1"/>
       <c r="H213" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I213" s="4"/>
       <c r="J213" s="1"/>
@@ -8762,14 +9179,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
@@ -8777,7 +9194,7 @@
       </c>
       <c r="G214" s="1"/>
       <c r="H214" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I214" s="4"/>
       <c r="J214" s="1"/>
@@ -8793,14 +9210,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
@@ -8808,7 +9225,7 @@
       </c>
       <c r="G215" s="1"/>
       <c r="H215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I215" s="4"/>
       <c r="J215" s="1"/>
@@ -8824,14 +9241,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1" t="s">
@@ -8839,7 +9256,7 @@
       </c>
       <c r="G216" s="1"/>
       <c r="H216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I216" s="4"/>
       <c r="J216" s="1"/>
@@ -8855,14 +9272,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
@@ -8870,7 +9287,7 @@
       </c>
       <c r="G217" s="1"/>
       <c r="H217" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="1"/>
@@ -8886,14 +9303,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
@@ -8901,7 +9318,7 @@
       </c>
       <c r="G218" s="1"/>
       <c r="H218" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I218" s="4"/>
       <c r="J218" s="1"/>
@@ -8917,14 +9334,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
@@ -8932,7 +9349,7 @@
       </c>
       <c r="G219" s="1"/>
       <c r="H219" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I219" s="4"/>
       <c r="J219" s="1"/>
@@ -8948,14 +9365,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
@@ -8963,7 +9380,7 @@
       </c>
       <c r="G220" s="1"/>
       <c r="H220" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I220" s="4"/>
       <c r="J220" s="1"/>
@@ -8979,14 +9396,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1" t="s">
@@ -8994,7 +9411,7 @@
       </c>
       <c r="G221" s="1"/>
       <c r="H221" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I221" s="4"/>
       <c r="J221" s="1"/>
@@ -9010,14 +9427,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
@@ -9025,7 +9442,7 @@
       </c>
       <c r="G222" s="1"/>
       <c r="H222" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I222" s="4"/>
       <c r="J222" s="1"/>
@@ -9041,14 +9458,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1" t="s">
@@ -9056,7 +9473,7 @@
       </c>
       <c r="G223" s="1"/>
       <c r="H223" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I223" s="4"/>
       <c r="J223" s="1"/>
@@ -9072,14 +9489,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
@@ -9087,7 +9504,7 @@
       </c>
       <c r="G224" s="1"/>
       <c r="H224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I224" s="4"/>
       <c r="J224" s="1"/>
@@ -9103,14 +9520,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
@@ -9118,7 +9535,7 @@
       </c>
       <c r="G225" s="1"/>
       <c r="H225" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I225" s="4"/>
       <c r="J225" s="1"/>
@@ -9134,14 +9551,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
@@ -9149,7 +9566,7 @@
       </c>
       <c r="G226" s="1"/>
       <c r="H226" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I226" s="4"/>
       <c r="J226" s="1"/>
@@ -9165,14 +9582,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1" t="s">
@@ -9180,7 +9597,7 @@
       </c>
       <c r="G227" s="1"/>
       <c r="H227" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I227" s="4"/>
       <c r="J227" s="1"/>
@@ -9196,14 +9613,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
@@ -9211,7 +9628,7 @@
       </c>
       <c r="G228" s="1"/>
       <c r="H228" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I228" s="4"/>
       <c r="J228" s="1"/>
@@ -9227,14 +9644,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1" t="s">
@@ -9242,7 +9659,7 @@
       </c>
       <c r="G229" s="1"/>
       <c r="H229" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I229" s="4"/>
       <c r="J229" s="1"/>
@@ -9258,14 +9675,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
@@ -9273,7 +9690,7 @@
       </c>
       <c r="G230" s="1"/>
       <c r="H230" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I230" s="4"/>
       <c r="J230" s="1"/>
@@ -9289,14 +9706,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1" t="s">
@@ -9304,7 +9721,7 @@
       </c>
       <c r="G231" s="1"/>
       <c r="H231" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I231" s="4"/>
       <c r="J231" s="1"/>
@@ -9320,14 +9737,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1" t="s">
@@ -9335,7 +9752,7 @@
       </c>
       <c r="G232" s="1"/>
       <c r="H232" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I232" s="4"/>
       <c r="J232" s="1"/>
@@ -9351,14 +9768,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1" t="s">
@@ -9366,7 +9783,7 @@
       </c>
       <c r="G233" s="1"/>
       <c r="H233" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I233" s="4"/>
       <c r="J233" s="1"/>
@@ -9382,14 +9799,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
@@ -9397,7 +9814,7 @@
       </c>
       <c r="G234" s="1"/>
       <c r="H234" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I234" s="4"/>
       <c r="J234" s="1"/>
@@ -9413,14 +9830,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1" t="s">
@@ -9428,7 +9845,7 @@
       </c>
       <c r="G235" s="1"/>
       <c r="H235" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I235" s="4"/>
       <c r="J235" s="1"/>
@@ -9444,14 +9861,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
@@ -9459,7 +9876,7 @@
       </c>
       <c r="G236" s="1"/>
       <c r="H236" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I236" s="4"/>
       <c r="J236" s="1"/>
@@ -9475,14 +9892,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1" t="s">
@@ -9490,7 +9907,7 @@
       </c>
       <c r="G237" s="1"/>
       <c r="H237" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I237" s="4"/>
       <c r="J237" s="1"/>
@@ -9506,9 +9923,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9516,14 +9933,14 @@
         <v>186</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I238" s="4"/>
       <c r="J238" s="1"/>
@@ -9539,9 +9956,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9549,14 +9966,14 @@
         <v>186</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I239" s="4"/>
       <c r="J239" s="1"/>
@@ -9572,9 +9989,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9582,14 +9999,14 @@
         <v>186</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I240" s="4"/>
       <c r="J240" s="1"/>
@@ -9605,9 +10022,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9615,14 +10032,14 @@
         <v>186</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I241" s="4"/>
       <c r="J241" s="1"/>
@@ -9638,9 +10055,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9648,14 +10065,14 @@
         <v>186</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I242" s="4"/>
       <c r="J242" s="1"/>
@@ -9671,9 +10088,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9681,14 +10098,14 @@
         <v>186</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I243" s="4"/>
       <c r="J243" s="1"/>
@@ -9704,9 +10121,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="2"/>
@@ -9714,14 +10131,14 @@
         <v>186</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I244" s="4"/>
       <c r="J244" s="1"/>
@@ -9737,7 +10154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="1"/>
       <c r="C245" s="2"/>
@@ -9754,6 +10171,2451 @@
       <c r="O245" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="8.203125E-2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.203125E-2" customWidth="1"/>
+    <col min="10" max="10" width="0.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="0.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.203125E-2" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L3" t="s">
+        <v>420</v>
+      </c>
+      <c r="O3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" t="s">
+        <v>419</v>
+      </c>
+      <c r="L4" t="s">
+        <v>420</v>
+      </c>
+      <c r="O4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" t="s">
+        <v>420</v>
+      </c>
+      <c r="O5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L6" t="s">
+        <v>420</v>
+      </c>
+      <c r="O6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L7" t="s">
+        <v>420</v>
+      </c>
+      <c r="O7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8" t="s">
+        <v>420</v>
+      </c>
+      <c r="O8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" t="s">
+        <v>421</v>
+      </c>
+      <c r="K9" t="s">
+        <v>419</v>
+      </c>
+      <c r="L9" t="s">
+        <v>420</v>
+      </c>
+      <c r="O9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F10" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K10" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" t="s">
+        <v>420</v>
+      </c>
+      <c r="O10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>421</v>
+      </c>
+      <c r="K11" t="s">
+        <v>419</v>
+      </c>
+      <c r="L11" t="s">
+        <v>420</v>
+      </c>
+      <c r="O11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>421</v>
+      </c>
+      <c r="K12" t="s">
+        <v>419</v>
+      </c>
+      <c r="L12" t="s">
+        <v>420</v>
+      </c>
+      <c r="O12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" t="s">
+        <v>453</v>
+      </c>
+      <c r="H13" t="s">
+        <v>421</v>
+      </c>
+      <c r="K13" t="s">
+        <v>419</v>
+      </c>
+      <c r="L13" t="s">
+        <v>420</v>
+      </c>
+      <c r="O13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" t="s">
+        <v>455</v>
+      </c>
+      <c r="F14" t="s">
+        <v>453</v>
+      </c>
+      <c r="H14" t="s">
+        <v>421</v>
+      </c>
+      <c r="K14" t="s">
+        <v>419</v>
+      </c>
+      <c r="L14" t="s">
+        <v>420</v>
+      </c>
+      <c r="O14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" t="s">
+        <v>449</v>
+      </c>
+      <c r="H15" t="s">
+        <v>421</v>
+      </c>
+      <c r="K15" t="s">
+        <v>419</v>
+      </c>
+      <c r="L15" t="s">
+        <v>420</v>
+      </c>
+      <c r="O15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>421</v>
+      </c>
+      <c r="K16" t="s">
+        <v>419</v>
+      </c>
+      <c r="L16" t="s">
+        <v>420</v>
+      </c>
+      <c r="O16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>421</v>
+      </c>
+      <c r="K17" t="s">
+        <v>419</v>
+      </c>
+      <c r="L17" t="s">
+        <v>420</v>
+      </c>
+      <c r="O17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>421</v>
+      </c>
+      <c r="K18" t="s">
+        <v>419</v>
+      </c>
+      <c r="L18" t="s">
+        <v>420</v>
+      </c>
+      <c r="O18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" t="s">
+        <v>420</v>
+      </c>
+      <c r="O19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" t="s">
+        <v>470</v>
+      </c>
+      <c r="E20" t="s">
+        <v>471</v>
+      </c>
+      <c r="F20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>421</v>
+      </c>
+      <c r="K20" t="s">
+        <v>419</v>
+      </c>
+      <c r="L20" t="s">
+        <v>420</v>
+      </c>
+      <c r="O20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>472</v>
+      </c>
+      <c r="D21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>421</v>
+      </c>
+      <c r="K21" t="s">
+        <v>419</v>
+      </c>
+      <c r="L21" t="s">
+        <v>420</v>
+      </c>
+      <c r="O21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E22" t="s">
+        <v>477</v>
+      </c>
+      <c r="F22" t="s">
+        <v>418</v>
+      </c>
+      <c r="H22" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" t="s">
+        <v>420</v>
+      </c>
+      <c r="O22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D23" t="s">
+        <v>479</v>
+      </c>
+      <c r="E23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>421</v>
+      </c>
+      <c r="K23" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" t="s">
+        <v>420</v>
+      </c>
+      <c r="O23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E24" t="s">
+        <v>483</v>
+      </c>
+      <c r="F24" t="s">
+        <v>449</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>421</v>
+      </c>
+      <c r="K24" t="s">
+        <v>419</v>
+      </c>
+      <c r="L24" t="s">
+        <v>420</v>
+      </c>
+      <c r="O24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25" t="s">
+        <v>486</v>
+      </c>
+      <c r="H25" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" t="s">
+        <v>419</v>
+      </c>
+      <c r="L25" t="s">
+        <v>420</v>
+      </c>
+      <c r="O25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" t="s">
+        <v>486</v>
+      </c>
+      <c r="H26" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" t="s">
+        <v>419</v>
+      </c>
+      <c r="L26" t="s">
+        <v>420</v>
+      </c>
+      <c r="O26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>489</v>
+      </c>
+      <c r="D27" t="s">
+        <v>490</v>
+      </c>
+      <c r="F27" t="s">
+        <v>486</v>
+      </c>
+      <c r="G27" t="s">
+        <v>491</v>
+      </c>
+      <c r="H27" t="s">
+        <v>421</v>
+      </c>
+      <c r="K27" t="s">
+        <v>419</v>
+      </c>
+      <c r="L27" t="s">
+        <v>420</v>
+      </c>
+      <c r="O27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D28" t="s">
+        <v>493</v>
+      </c>
+      <c r="F28" t="s">
+        <v>486</v>
+      </c>
+      <c r="G28" t="s">
+        <v>494</v>
+      </c>
+      <c r="H28" t="s">
+        <v>421</v>
+      </c>
+      <c r="K28" t="s">
+        <v>419</v>
+      </c>
+      <c r="L28" t="s">
+        <v>420</v>
+      </c>
+      <c r="O28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>495</v>
+      </c>
+      <c r="D29" t="s">
+        <v>496</v>
+      </c>
+      <c r="E29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F29" t="s">
+        <v>497</v>
+      </c>
+      <c r="G29" t="s">
+        <v>350</v>
+      </c>
+      <c r="H29" t="s">
+        <v>421</v>
+      </c>
+      <c r="K29" t="s">
+        <v>498</v>
+      </c>
+      <c r="L29" t="s">
+        <v>499</v>
+      </c>
+      <c r="O29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" t="s">
+        <v>502</v>
+      </c>
+      <c r="F30" t="s">
+        <v>497</v>
+      </c>
+      <c r="G30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" t="s">
+        <v>421</v>
+      </c>
+      <c r="K30" t="s">
+        <v>498</v>
+      </c>
+      <c r="L30" t="s">
+        <v>499</v>
+      </c>
+      <c r="O30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D31" t="s">
+        <v>504</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s">
+        <v>505</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" t="s">
+        <v>498</v>
+      </c>
+      <c r="L31" t="s">
+        <v>499</v>
+      </c>
+      <c r="O31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" t="s">
+        <v>504</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" t="s">
+        <v>421</v>
+      </c>
+      <c r="K32" t="s">
+        <v>498</v>
+      </c>
+      <c r="L32" t="s">
+        <v>499</v>
+      </c>
+      <c r="O32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>507</v>
+      </c>
+      <c r="D33" t="s">
+        <v>508</v>
+      </c>
+      <c r="E33" t="s">
+        <v>509</v>
+      </c>
+      <c r="F33" t="s">
+        <v>510</v>
+      </c>
+      <c r="G33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" t="s">
+        <v>421</v>
+      </c>
+      <c r="K33" t="s">
+        <v>498</v>
+      </c>
+      <c r="L33" t="s">
+        <v>499</v>
+      </c>
+      <c r="O33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>511</v>
+      </c>
+      <c r="D34" t="s">
+        <v>512</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" t="s">
+        <v>513</v>
+      </c>
+      <c r="H34" t="s">
+        <v>421</v>
+      </c>
+      <c r="K34" t="s">
+        <v>498</v>
+      </c>
+      <c r="L34" t="s">
+        <v>499</v>
+      </c>
+      <c r="O34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" t="s">
+        <v>516</v>
+      </c>
+      <c r="H35" t="s">
+        <v>421</v>
+      </c>
+      <c r="K35" t="s">
+        <v>498</v>
+      </c>
+      <c r="L35" t="s">
+        <v>499</v>
+      </c>
+      <c r="O35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="D36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>516</v>
+      </c>
+      <c r="H36" t="s">
+        <v>421</v>
+      </c>
+      <c r="K36" t="s">
+        <v>498</v>
+      </c>
+      <c r="L36" t="s">
+        <v>499</v>
+      </c>
+      <c r="O36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>518</v>
+      </c>
+      <c r="D37" t="s">
+        <v>519</v>
+      </c>
+      <c r="E37" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" t="s">
+        <v>520</v>
+      </c>
+      <c r="H37" t="s">
+        <v>421</v>
+      </c>
+      <c r="K37" t="s">
+        <v>498</v>
+      </c>
+      <c r="L37" t="s">
+        <v>499</v>
+      </c>
+      <c r="O37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>521</v>
+      </c>
+      <c r="D38" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" t="s">
+        <v>407</v>
+      </c>
+      <c r="F38" t="s">
+        <v>520</v>
+      </c>
+      <c r="H38" t="s">
+        <v>421</v>
+      </c>
+      <c r="K38" t="s">
+        <v>498</v>
+      </c>
+      <c r="L38" t="s">
+        <v>499</v>
+      </c>
+      <c r="O38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>523</v>
+      </c>
+      <c r="D39" t="s">
+        <v>524</v>
+      </c>
+      <c r="F39" t="s">
+        <v>525</v>
+      </c>
+      <c r="H39" t="s">
+        <v>421</v>
+      </c>
+      <c r="K39" t="s">
+        <v>498</v>
+      </c>
+      <c r="L39" t="s">
+        <v>499</v>
+      </c>
+      <c r="O39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>526</v>
+      </c>
+      <c r="D40" t="s">
+        <v>527</v>
+      </c>
+      <c r="F40" t="s">
+        <v>528</v>
+      </c>
+      <c r="H40" t="s">
+        <v>421</v>
+      </c>
+      <c r="K40" t="s">
+        <v>419</v>
+      </c>
+      <c r="L40" t="s">
+        <v>420</v>
+      </c>
+      <c r="O40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>529</v>
+      </c>
+      <c r="D41" t="s">
+        <v>530</v>
+      </c>
+      <c r="F41" t="s">
+        <v>531</v>
+      </c>
+      <c r="H41" t="s">
+        <v>421</v>
+      </c>
+      <c r="K41" t="s">
+        <v>419</v>
+      </c>
+      <c r="L41" t="s">
+        <v>420</v>
+      </c>
+      <c r="O41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>532</v>
+      </c>
+      <c r="D42" t="s">
+        <v>533</v>
+      </c>
+      <c r="F42" t="s">
+        <v>534</v>
+      </c>
+      <c r="H42" t="s">
+        <v>421</v>
+      </c>
+      <c r="K42" t="s">
+        <v>419</v>
+      </c>
+      <c r="L42" t="s">
+        <v>420</v>
+      </c>
+      <c r="O42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>535</v>
+      </c>
+      <c r="D43" t="s">
+        <v>536</v>
+      </c>
+      <c r="E43" t="s">
+        <v>537</v>
+      </c>
+      <c r="F43" t="s">
+        <v>538</v>
+      </c>
+      <c r="H43" t="s">
+        <v>421</v>
+      </c>
+      <c r="K43" t="s">
+        <v>419</v>
+      </c>
+      <c r="L43" t="s">
+        <v>420</v>
+      </c>
+      <c r="O43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D44" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44" t="s">
+        <v>541</v>
+      </c>
+      <c r="H44" t="s">
+        <v>421</v>
+      </c>
+      <c r="K44" t="s">
+        <v>542</v>
+      </c>
+      <c r="L44" t="s">
+        <v>543</v>
+      </c>
+      <c r="O44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" t="s">
+        <v>545</v>
+      </c>
+      <c r="F45" t="s">
+        <v>541</v>
+      </c>
+      <c r="H45" t="s">
+        <v>421</v>
+      </c>
+      <c r="K45" t="s">
+        <v>542</v>
+      </c>
+      <c r="L45" t="s">
+        <v>543</v>
+      </c>
+      <c r="O45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>546</v>
+      </c>
+      <c r="D46" t="s">
+        <v>547</v>
+      </c>
+      <c r="F46" t="s">
+        <v>541</v>
+      </c>
+      <c r="H46" t="s">
+        <v>421</v>
+      </c>
+      <c r="K46" t="s">
+        <v>542</v>
+      </c>
+      <c r="L46" t="s">
+        <v>543</v>
+      </c>
+      <c r="O46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>416</v>
+      </c>
+      <c r="D47" t="s">
+        <v>417</v>
+      </c>
+      <c r="F47" t="s">
+        <v>418</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K47" t="s">
+        <v>419</v>
+      </c>
+      <c r="L47" t="s">
+        <v>420</v>
+      </c>
+      <c r="O47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D48" t="s">
+        <v>423</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>424</v>
+      </c>
+      <c r="H48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" t="s">
+        <v>419</v>
+      </c>
+      <c r="L48" t="s">
+        <v>420</v>
+      </c>
+      <c r="O48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>425</v>
+      </c>
+      <c r="D49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" t="s">
+        <v>427</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s">
+        <v>420</v>
+      </c>
+      <c r="O49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>431</v>
+      </c>
+      <c r="D51" t="s">
+        <v>432</v>
+      </c>
+      <c r="E51" t="s">
+        <v>433</v>
+      </c>
+      <c r="F51" t="s">
+        <v>430</v>
+      </c>
+      <c r="G51" t="s">
+        <v>424</v>
+      </c>
+      <c r="H51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K51" t="s">
+        <v>419</v>
+      </c>
+      <c r="L51" t="s">
+        <v>420</v>
+      </c>
+      <c r="O51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" t="s">
+        <v>419</v>
+      </c>
+      <c r="L52" t="s">
+        <v>420</v>
+      </c>
+      <c r="O52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>437</v>
+      </c>
+      <c r="D53" t="s">
+        <v>438</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>419</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" t="s">
+        <v>441</v>
+      </c>
+      <c r="F54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" t="s">
+        <v>444</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="H55" t="s">
+        <v>421</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s">
+        <v>420</v>
+      </c>
+      <c r="O55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" t="s">
+        <v>446</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>421</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" t="s">
+        <v>448</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s">
+        <v>449</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s">
+        <v>420</v>
+      </c>
+      <c r="O57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" t="s">
+        <v>451</v>
+      </c>
+      <c r="E58" t="s">
+        <v>452</v>
+      </c>
+      <c r="F58" t="s">
+        <v>453</v>
+      </c>
+      <c r="H58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D59" t="s">
+        <v>455</v>
+      </c>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="H59" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" t="s">
+        <v>419</v>
+      </c>
+      <c r="L59" t="s">
+        <v>420</v>
+      </c>
+      <c r="O59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" t="s">
+        <v>457</v>
+      </c>
+      <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="H60" t="s">
+        <v>421</v>
+      </c>
+      <c r="K60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s">
+        <v>420</v>
+      </c>
+      <c r="O60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+      <c r="D61" t="s">
+        <v>459</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>449</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" t="s">
+        <v>420</v>
+      </c>
+      <c r="O61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>460</v>
+      </c>
+      <c r="D62" t="s">
+        <v>461</v>
+      </c>
+      <c r="E62" t="s">
+        <v>462</v>
+      </c>
+      <c r="F62" t="s">
+        <v>463</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
+        <v>421</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="O62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>464</v>
+      </c>
+      <c r="D63" t="s">
+        <v>465</v>
+      </c>
+      <c r="E63" t="s">
+        <v>466</v>
+      </c>
+      <c r="F63" t="s">
+        <v>449</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" t="s">
+        <v>421</v>
+      </c>
+      <c r="K63" t="s">
+        <v>419</v>
+      </c>
+      <c r="L63" t="s">
+        <v>420</v>
+      </c>
+      <c r="O63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>467</v>
+      </c>
+      <c r="D64" t="s">
+        <v>468</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>419</v>
+      </c>
+      <c r="L64" t="s">
+        <v>420</v>
+      </c>
+      <c r="O64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>469</v>
+      </c>
+      <c r="D65" t="s">
+        <v>470</v>
+      </c>
+      <c r="E65" t="s">
+        <v>471</v>
+      </c>
+      <c r="F65" t="s">
+        <v>463</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" t="s">
+        <v>421</v>
+      </c>
+      <c r="K65" t="s">
+        <v>419</v>
+      </c>
+      <c r="L65" t="s">
+        <v>420</v>
+      </c>
+      <c r="O65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>472</v>
+      </c>
+      <c r="D66" t="s">
+        <v>473</v>
+      </c>
+      <c r="E66" t="s">
+        <v>474</v>
+      </c>
+      <c r="F66" t="s">
+        <v>463</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>421</v>
+      </c>
+      <c r="K66" t="s">
+        <v>419</v>
+      </c>
+      <c r="L66" t="s">
+        <v>420</v>
+      </c>
+      <c r="O66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>475</v>
+      </c>
+      <c r="D67" t="s">
+        <v>476</v>
+      </c>
+      <c r="E67" t="s">
+        <v>477</v>
+      </c>
+      <c r="F67" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" t="s">
+        <v>421</v>
+      </c>
+      <c r="K67" t="s">
+        <v>419</v>
+      </c>
+      <c r="L67" t="s">
+        <v>420</v>
+      </c>
+      <c r="O67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>478</v>
+      </c>
+      <c r="D68" t="s">
+        <v>479</v>
+      </c>
+      <c r="E68" t="s">
+        <v>480</v>
+      </c>
+      <c r="F68" t="s">
+        <v>430</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" t="s">
+        <v>419</v>
+      </c>
+      <c r="L68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>481</v>
+      </c>
+      <c r="D69" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" t="s">
+        <v>483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>449</v>
+      </c>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" t="s">
+        <v>421</v>
+      </c>
+      <c r="K69" t="s">
+        <v>419</v>
+      </c>
+      <c r="L69" t="s">
+        <v>420</v>
+      </c>
+      <c r="O69" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>484</v>
+      </c>
+      <c r="D70" t="s">
+        <v>485</v>
+      </c>
+      <c r="F70" t="s">
+        <v>486</v>
+      </c>
+      <c r="H70" t="s">
+        <v>421</v>
+      </c>
+      <c r="K70" t="s">
+        <v>419</v>
+      </c>
+      <c r="L70" t="s">
+        <v>420</v>
+      </c>
+      <c r="O70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" t="s">
+        <v>488</v>
+      </c>
+      <c r="F71" t="s">
+        <v>486</v>
+      </c>
+      <c r="H71" t="s">
+        <v>421</v>
+      </c>
+      <c r="K71" t="s">
+        <v>419</v>
+      </c>
+      <c r="L71" t="s">
+        <v>420</v>
+      </c>
+      <c r="O71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" t="s">
+        <v>490</v>
+      </c>
+      <c r="F72" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" t="s">
+        <v>491</v>
+      </c>
+      <c r="H72" t="s">
+        <v>421</v>
+      </c>
+      <c r="K72" t="s">
+        <v>419</v>
+      </c>
+      <c r="L72" t="s">
+        <v>420</v>
+      </c>
+      <c r="O72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" t="s">
+        <v>493</v>
+      </c>
+      <c r="F73" t="s">
+        <v>486</v>
+      </c>
+      <c r="G73" t="s">
+        <v>494</v>
+      </c>
+      <c r="H73" t="s">
+        <v>421</v>
+      </c>
+      <c r="K73" t="s">
+        <v>419</v>
+      </c>
+      <c r="L73" t="s">
+        <v>420</v>
+      </c>
+      <c r="O73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>495</v>
+      </c>
+      <c r="D74" t="s">
+        <v>496</v>
+      </c>
+      <c r="E74" t="s">
+        <v>349</v>
+      </c>
+      <c r="F74" t="s">
+        <v>497</v>
+      </c>
+      <c r="G74" t="s">
+        <v>350</v>
+      </c>
+      <c r="H74" t="s">
+        <v>421</v>
+      </c>
+      <c r="K74" t="s">
+        <v>498</v>
+      </c>
+      <c r="L74" t="s">
+        <v>499</v>
+      </c>
+      <c r="O74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D75" t="s">
+        <v>501</v>
+      </c>
+      <c r="E75" t="s">
+        <v>502</v>
+      </c>
+      <c r="F75" t="s">
+        <v>497</v>
+      </c>
+      <c r="G75" t="s">
+        <v>350</v>
+      </c>
+      <c r="H75" t="s">
+        <v>421</v>
+      </c>
+      <c r="K75" t="s">
+        <v>498</v>
+      </c>
+      <c r="L75" t="s">
+        <v>499</v>
+      </c>
+      <c r="O75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>503</v>
+      </c>
+      <c r="D76" t="s">
+        <v>504</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" t="s">
+        <v>505</v>
+      </c>
+      <c r="G76" t="s">
+        <v>153</v>
+      </c>
+      <c r="H76" t="s">
+        <v>421</v>
+      </c>
+      <c r="K76" t="s">
+        <v>498</v>
+      </c>
+      <c r="L76" t="s">
+        <v>499</v>
+      </c>
+      <c r="O76" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>506</v>
+      </c>
+      <c r="D77" t="s">
+        <v>504</v>
+      </c>
+      <c r="E77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H77" t="s">
+        <v>421</v>
+      </c>
+      <c r="K77" t="s">
+        <v>498</v>
+      </c>
+      <c r="L77" t="s">
+        <v>499</v>
+      </c>
+      <c r="O77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>507</v>
+      </c>
+      <c r="D78" t="s">
+        <v>508</v>
+      </c>
+      <c r="E78" t="s">
+        <v>509</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" t="s">
+        <v>421</v>
+      </c>
+      <c r="K78" t="s">
+        <v>498</v>
+      </c>
+      <c r="L78" t="s">
+        <v>499</v>
+      </c>
+      <c r="O78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>511</v>
+      </c>
+      <c r="D79" t="s">
+        <v>512</v>
+      </c>
+      <c r="E79" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" t="s">
+        <v>513</v>
+      </c>
+      <c r="H79" t="s">
+        <v>421</v>
+      </c>
+      <c r="K79" t="s">
+        <v>498</v>
+      </c>
+      <c r="L79" t="s">
+        <v>499</v>
+      </c>
+      <c r="O79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>514</v>
+      </c>
+      <c r="D80" t="s">
+        <v>515</v>
+      </c>
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" t="s">
+        <v>516</v>
+      </c>
+      <c r="H80" t="s">
+        <v>421</v>
+      </c>
+      <c r="K80" t="s">
+        <v>498</v>
+      </c>
+      <c r="L80" t="s">
+        <v>499</v>
+      </c>
+      <c r="O80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>517</v>
+      </c>
+      <c r="D81" t="s">
+        <v>515</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" t="s">
+        <v>516</v>
+      </c>
+      <c r="H81" t="s">
+        <v>421</v>
+      </c>
+      <c r="K81" t="s">
+        <v>498</v>
+      </c>
+      <c r="L81" t="s">
+        <v>499</v>
+      </c>
+      <c r="O81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>518</v>
+      </c>
+      <c r="D82" t="s">
+        <v>519</v>
+      </c>
+      <c r="E82" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" t="s">
+        <v>520</v>
+      </c>
+      <c r="H82" t="s">
+        <v>421</v>
+      </c>
+      <c r="K82" t="s">
+        <v>498</v>
+      </c>
+      <c r="L82" t="s">
+        <v>499</v>
+      </c>
+      <c r="O82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>521</v>
+      </c>
+      <c r="D83" t="s">
+        <v>522</v>
+      </c>
+      <c r="E83" t="s">
+        <v>407</v>
+      </c>
+      <c r="F83" t="s">
+        <v>520</v>
+      </c>
+      <c r="H83" t="s">
+        <v>421</v>
+      </c>
+      <c r="K83" t="s">
+        <v>498</v>
+      </c>
+      <c r="L83" t="s">
+        <v>499</v>
+      </c>
+      <c r="O83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>523</v>
+      </c>
+      <c r="D84" t="s">
+        <v>524</v>
+      </c>
+      <c r="F84" t="s">
+        <v>525</v>
+      </c>
+      <c r="H84" t="s">
+        <v>421</v>
+      </c>
+      <c r="K84" t="s">
+        <v>498</v>
+      </c>
+      <c r="L84" t="s">
+        <v>499</v>
+      </c>
+      <c r="O84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>526</v>
+      </c>
+      <c r="D85" t="s">
+        <v>527</v>
+      </c>
+      <c r="F85" t="s">
+        <v>528</v>
+      </c>
+      <c r="H85" t="s">
+        <v>421</v>
+      </c>
+      <c r="K85" t="s">
+        <v>419</v>
+      </c>
+      <c r="L85" t="s">
+        <v>420</v>
+      </c>
+      <c r="O85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>529</v>
+      </c>
+      <c r="D86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F86" t="s">
+        <v>531</v>
+      </c>
+      <c r="H86" t="s">
+        <v>421</v>
+      </c>
+      <c r="K86" t="s">
+        <v>419</v>
+      </c>
+      <c r="L86" t="s">
+        <v>420</v>
+      </c>
+      <c r="O86" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>532</v>
+      </c>
+      <c r="D87" t="s">
+        <v>533</v>
+      </c>
+      <c r="F87" t="s">
+        <v>534</v>
+      </c>
+      <c r="H87" t="s">
+        <v>421</v>
+      </c>
+      <c r="K87" t="s">
+        <v>419</v>
+      </c>
+      <c r="L87" t="s">
+        <v>420</v>
+      </c>
+      <c r="O87" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>535</v>
+      </c>
+      <c r="D88" t="s">
+        <v>536</v>
+      </c>
+      <c r="E88" t="s">
+        <v>537</v>
+      </c>
+      <c r="F88" t="s">
+        <v>538</v>
+      </c>
+      <c r="H88" t="s">
+        <v>421</v>
+      </c>
+      <c r="K88" t="s">
+        <v>419</v>
+      </c>
+      <c r="L88" t="s">
+        <v>420</v>
+      </c>
+      <c r="O88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>539</v>
+      </c>
+      <c r="D89" t="s">
+        <v>540</v>
+      </c>
+      <c r="F89" t="s">
+        <v>541</v>
+      </c>
+      <c r="H89" t="s">
+        <v>421</v>
+      </c>
+      <c r="K89" t="s">
+        <v>542</v>
+      </c>
+      <c r="L89" t="s">
+        <v>543</v>
+      </c>
+      <c r="O89" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>544</v>
+      </c>
+      <c r="D90" t="s">
+        <v>545</v>
+      </c>
+      <c r="F90" t="s">
+        <v>541</v>
+      </c>
+      <c r="H90" t="s">
+        <v>421</v>
+      </c>
+      <c r="K90" t="s">
+        <v>542</v>
+      </c>
+      <c r="L90" t="s">
+        <v>543</v>
+      </c>
+      <c r="O90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>546</v>
+      </c>
+      <c r="D91" t="s">
+        <v>547</v>
+      </c>
+      <c r="F91" t="s">
+        <v>541</v>
+      </c>
+      <c r="H91" t="s">
+        <v>421</v>
+      </c>
+      <c r="K91" t="s">
+        <v>542</v>
+      </c>
+      <c r="L91" t="s">
+        <v>543</v>
+      </c>
+      <c r="O91" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -1050,6 +1050,7 @@
           <t>3.2t</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>SB343982</t>
@@ -1088,13 +1089,13 @@
           <t xml:space="preserve">Wire Rope for Puller </t>
         </is>
       </c>
-      <c r="E11" s="4" t="n"/>
+      <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n"/>
+      <c r="G11" s="4" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>SB343983</t>
@@ -1133,13 +1134,13 @@
           <t xml:space="preserve">Wire Rope for Puller </t>
         </is>
       </c>
-      <c r="E12" s="4" t="n"/>
+      <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>3.2t</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n"/>
+      <c r="G12" s="4" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>SB343984</t>
@@ -1868,7 +1869,7 @@
           <t xml:space="preserve">Snatch Block </t>
         </is>
       </c>
-      <c r="E26" s="4" t="n"/>
+      <c r="E26" s="4" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>2t
@@ -2079,13 +2080,13 @@
           <t xml:space="preserve">Skate </t>
         </is>
       </c>
-      <c r="E30" s="4" t="n"/>
+      <c r="E30" s="4" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>12t</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>SB344035</t>
@@ -2134,7 +2135,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n"/>
+      <c r="G31" s="4" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2183,7 +2184,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n"/>
+      <c r="G32" s="4" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2232,7 +2233,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n"/>
+      <c r="G33" s="4" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2281,7 +2282,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n"/>
+      <c r="G34" s="4" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2330,7 +2331,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n"/>
+      <c r="G35" s="4" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2379,7 +2380,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n"/>
+      <c r="G36" s="4" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2428,7 +2429,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n"/>
+      <c r="G37" s="4" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2477,7 +2478,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n"/>
+      <c r="G38" s="4" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2527,7 +2528,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n"/>
+      <c r="G39" s="4" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2576,7 +2577,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n"/>
+      <c r="G40" s="4" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2625,7 +2626,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n"/>
+      <c r="G41" s="4" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2674,7 +2675,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n"/>
+      <c r="G42" s="4" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2713,7 +2714,7 @@
           <t xml:space="preserve">Master Link </t>
         </is>
       </c>
-      <c r="E43" s="4" t="n"/>
+      <c r="E43" s="4" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>10.7t</t>
@@ -2762,7 +2763,7 @@
           <t xml:space="preserve">Master Link </t>
         </is>
       </c>
-      <c r="E44" s="4" t="n"/>
+      <c r="E44" s="4" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>10.7t</t>
@@ -2811,7 +2812,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E45" s="4" t="n"/>
+      <c r="E45" s="4" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -2860,7 +2861,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E46" s="4" t="n"/>
+      <c r="E46" s="4" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -2909,7 +2910,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E47" s="4" t="n"/>
+      <c r="E47" s="4" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -2958,7 +2959,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E48" s="4" t="n"/>
+      <c r="E48" s="4" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3007,7 +3008,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E49" s="4" t="n"/>
+      <c r="E49" s="4" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3056,7 +3057,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E50" s="4" t="n"/>
+      <c r="E50" s="4" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3105,7 +3106,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E51" s="4" t="n"/>
+      <c r="E51" s="4" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3154,7 +3155,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E52" s="4" t="n"/>
+      <c r="E52" s="4" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3203,7 +3204,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E53" s="4" t="n"/>
+      <c r="E53" s="4" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3252,7 +3253,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E54" s="4" t="n"/>
+      <c r="E54" s="4" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3301,7 +3302,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E55" s="4" t="n"/>
+      <c r="E55" s="4" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3350,7 +3351,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E56" s="4" t="n"/>
+      <c r="E56" s="4" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3399,7 +3400,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E57" s="4" t="n"/>
+      <c r="E57" s="4" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3448,7 +3449,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E58" s="4" t="n"/>
+      <c r="E58" s="4" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3497,7 +3498,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E59" s="4" t="n"/>
+      <c r="E59" s="4" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3546,7 +3547,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E60" s="4" t="n"/>
+      <c r="E60" s="4" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3595,7 +3596,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E61" s="4" t="n"/>
+      <c r="E61" s="4" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3644,7 +3645,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E62" s="4" t="n"/>
+      <c r="E62" s="4" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3693,7 +3694,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E63" s="4" t="n"/>
+      <c r="E63" s="4" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3742,7 +3743,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E64" s="4" t="n"/>
+      <c r="E64" s="4" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3791,7 +3792,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E65" s="4" t="n"/>
+      <c r="E65" s="4" t="inlineStr"/>
       <c r="F65" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3840,7 +3841,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E66" s="4" t="n"/>
+      <c r="E66" s="4" t="inlineStr"/>
       <c r="F66" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3889,7 +3890,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E67" s="4" t="n"/>
+      <c r="E67" s="4" t="inlineStr"/>
       <c r="F67" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3938,7 +3939,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E68" s="4" t="n"/>
+      <c r="E68" s="4" t="inlineStr"/>
       <c r="F68" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3997,7 +3998,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G69" s="4" t="n"/>
+      <c r="G69" s="4" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4046,7 +4047,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G70" s="4" t="n"/>
+      <c r="G70" s="4" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4095,7 +4096,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G71" s="4" t="n"/>
+      <c r="G71" s="4" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4144,7 +4145,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G72" s="4" t="n"/>
+      <c r="G72" s="4" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4193,7 +4194,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G73" s="4" t="n"/>
+      <c r="G73" s="4" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4242,7 +4243,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G74" s="4" t="n"/>
+      <c r="G74" s="4" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4291,7 +4292,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G75" s="4" t="n"/>
+      <c r="G75" s="4" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4340,7 +4341,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G76" s="4" t="n"/>
+      <c r="G76" s="4" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4389,7 +4390,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G77" s="4" t="n"/>
+      <c r="G77" s="4" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4438,7 +4439,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G78" s="4" t="n"/>
+      <c r="G78" s="4" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4487,7 +4488,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G79" s="4" t="n"/>
+      <c r="G79" s="4" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4536,7 +4537,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G80" s="4" t="n"/>
+      <c r="G80" s="4" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4585,7 +4586,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G81" s="4" t="n"/>
+      <c r="G81" s="4" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4634,7 +4635,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G82" s="4" t="n"/>
+      <c r="G82" s="4" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4683,7 +4684,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G83" s="4" t="n"/>
+      <c r="G83" s="4" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4732,7 +4733,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G84" s="4" t="n"/>
+      <c r="G84" s="4" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4781,7 +4782,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G85" s="4" t="n"/>
+      <c r="G85" s="4" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4830,7 +4831,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G86" s="4" t="n"/>
+      <c r="G86" s="4" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4879,7 +4880,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G87" s="4" t="n"/>
+      <c r="G87" s="4" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4928,7 +4929,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G88" s="4" t="n"/>
+      <c r="G88" s="4" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4977,7 +4978,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G89" s="4" t="n"/>
+      <c r="G89" s="4" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5026,7 +5027,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G90" s="4" t="n"/>
+      <c r="G90" s="4" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5075,7 +5076,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G91" s="4" t="n"/>
+      <c r="G91" s="4" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5124,7 +5125,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G92" s="4" t="n"/>
+      <c r="G92" s="4" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5173,7 +5174,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G93" s="4" t="n"/>
+      <c r="G93" s="4" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5222,7 +5223,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G94" s="4" t="n"/>
+      <c r="G94" s="4" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5271,7 +5272,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G95" s="4" t="n"/>
+      <c r="G95" s="4" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5320,7 +5321,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G96" s="4" t="n"/>
+      <c r="G96" s="4" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5369,7 +5370,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G97" s="4" t="n"/>
+      <c r="G97" s="4" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5418,7 +5419,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G98" s="4" t="n"/>
+      <c r="G98" s="4" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5467,7 +5468,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G99" s="4" t="n"/>
+      <c r="G99" s="4" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5516,7 +5517,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G100" s="4" t="n"/>
+      <c r="G100" s="4" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5565,7 +5566,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G101" s="4" t="n"/>
+      <c r="G101" s="4" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5614,7 +5615,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G102" s="4" t="n"/>
+      <c r="G102" s="4" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5663,7 +5664,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G103" s="4" t="n"/>
+      <c r="G103" s="4" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5712,7 +5713,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G104" s="4" t="n"/>
+      <c r="G104" s="4" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5751,13 +5752,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E105" s="4" t="n"/>
+      <c r="E105" s="4" t="inlineStr"/>
       <c r="F105" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G105" s="4" t="n"/>
+      <c r="G105" s="4" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5796,13 +5797,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E106" s="4" t="n"/>
+      <c r="E106" s="4" t="inlineStr"/>
       <c r="F106" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G106" s="4" t="n"/>
+      <c r="G106" s="4" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5841,13 +5842,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E107" s="4" t="n"/>
+      <c r="E107" s="4" t="inlineStr"/>
       <c r="F107" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G107" s="4" t="n"/>
+      <c r="G107" s="4" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5886,13 +5887,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E108" s="4" t="n"/>
+      <c r="E108" s="4" t="inlineStr"/>
       <c r="F108" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G108" s="4" t="n"/>
+      <c r="G108" s="4" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5931,13 +5932,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E109" s="4" t="n"/>
+      <c r="E109" s="4" t="inlineStr"/>
       <c r="F109" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G109" s="4" t="n"/>
+      <c r="G109" s="4" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5976,13 +5977,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E110" s="4" t="n"/>
+      <c r="E110" s="4" t="inlineStr"/>
       <c r="F110" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G110" s="4" t="n"/>
+      <c r="G110" s="4" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -6031,7 +6032,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G111" s="4" t="n"/>
+      <c r="G111" s="4" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6080,7 +6081,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G112" s="4" t="n"/>
+      <c r="G112" s="4" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6129,7 +6130,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G113" s="4" t="n"/>
+      <c r="G113" s="4" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6178,7 +6179,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G114" s="4" t="n"/>
+      <c r="G114" s="4" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6227,7 +6228,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G115" s="4" t="n"/>
+      <c r="G115" s="4" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6276,7 +6277,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G116" s="4" t="n"/>
+      <c r="G116" s="4" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6325,7 +6326,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G117" s="4" t="n"/>
+      <c r="G117" s="4" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6374,7 +6375,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G118" s="4" t="n"/>
+      <c r="G118" s="4" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6423,7 +6424,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G119" s="4" t="n"/>
+      <c r="G119" s="4" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6472,7 +6473,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G120" s="4" t="n"/>
+      <c r="G120" s="4" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6511,13 +6512,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E121" s="4" t="n"/>
+      <c r="E121" s="4" t="inlineStr"/>
       <c r="F121" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G121" s="4" t="n"/>
+      <c r="G121" s="4" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6556,13 +6557,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E122" s="4" t="n"/>
+      <c r="E122" s="4" t="inlineStr"/>
       <c r="F122" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G122" s="4" t="n"/>
+      <c r="G122" s="4" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6601,13 +6602,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E123" s="4" t="n"/>
+      <c r="E123" s="4" t="inlineStr"/>
       <c r="F123" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G123" s="4" t="n"/>
+      <c r="G123" s="4" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6646,13 +6647,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E124" s="4" t="n"/>
+      <c r="E124" s="4" t="inlineStr"/>
       <c r="F124" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G124" s="4" t="n"/>
+      <c r="G124" s="4" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6691,13 +6692,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E125" s="4" t="n"/>
+      <c r="E125" s="4" t="inlineStr"/>
       <c r="F125" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G125" s="4" t="n"/>
+      <c r="G125" s="4" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6736,13 +6737,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E126" s="1" t="n"/>
+      <c r="E126" s="1" t="inlineStr"/>
       <c r="F126" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G126" s="1" t="n"/>
+      <c r="G126" s="1" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6781,13 +6782,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E127" s="1" t="n"/>
+      <c r="E127" s="1" t="inlineStr"/>
       <c r="F127" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G127" s="1" t="n"/>
+      <c r="G127" s="1" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -6826,13 +6827,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E128" s="1" t="n"/>
+      <c r="E128" s="1" t="inlineStr"/>
       <c r="F128" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G128" s="1" t="n"/>
+      <c r="G128" s="1" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -6871,13 +6872,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E129" s="1" t="n"/>
+      <c r="E129" s="1" t="inlineStr"/>
       <c r="F129" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G129" s="1" t="n"/>
+      <c r="G129" s="1" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -6916,13 +6917,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E130" s="1" t="n"/>
+      <c r="E130" s="1" t="inlineStr"/>
       <c r="F130" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G130" s="1" t="n"/>
+      <c r="G130" s="1" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -7067,7 +7068,7 @@
           <t xml:space="preserve">Crane Pennant </t>
         </is>
       </c>
-      <c r="E133" s="1" t="n"/>
+      <c r="E133" s="1" t="inlineStr"/>
       <c r="F133" s="1" t="inlineStr">
         <is>
           <t>20t</t>
@@ -7116,9 +7117,13 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
-      <c r="E134" s="1" t="n"/>
+      <c r="E134" s="1" t="inlineStr"/>
       <c r="F134" s="1" t="n"/>
-      <c r="G134" s="1" t="n"/>
+      <c r="G134" s="1" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>SB344109</t>
@@ -7158,9 +7163,13 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
-      <c r="E135" s="1" t="n"/>
+      <c r="E135" s="1" t="inlineStr"/>
       <c r="F135" s="1" t="n"/>
-      <c r="G135" s="1" t="n"/>
+      <c r="G135" s="1" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t>SB344109</t>
@@ -7199,9 +7208,13 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
-      <c r="E136" s="1" t="n"/>
+      <c r="E136" s="1" t="inlineStr"/>
       <c r="F136" s="1" t="n"/>
-      <c r="G136" s="1" t="n"/>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t>SB344109</t>
@@ -7241,8 +7254,13 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" s="1" t="n"/>
-      <c r="G137" s="1" t="n"/>
+      <c r="G137" s="1" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
           <t>SB344109</t>
@@ -9452,7 +9470,7 @@
         <v>1112900</v>
       </c>
       <c r="F182" s="1" t="n"/>
-      <c r="G182" s="1" t="n"/>
+      <c r="G182" s="1" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
           <t>SB344114</t>
@@ -9496,7 +9514,7 @@
         <v>1112900</v>
       </c>
       <c r="F183" s="1" t="n"/>
-      <c r="G183" s="1" t="n"/>
+      <c r="G183" s="1" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
           <t>SB344114</t>
@@ -9540,7 +9558,7 @@
         <v>1112900</v>
       </c>
       <c r="F184" s="1" t="n"/>
-      <c r="G184" s="1" t="n"/>
+      <c r="G184" s="1" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
           <t>SB344114</t>
@@ -10657,7 +10675,8 @@
     <row r="207">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>23-935404</t>
+          <t xml:space="preserve">
+23-935404</t>
         </is>
       </c>
       <c r="B207" s="1" t="n"/>
@@ -10914,13 +10933,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E212" s="1" t="n"/>
+      <c r="E212" s="1" t="inlineStr"/>
       <c r="F212" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G212" s="1" t="n"/>
+      <c r="G212" s="1" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -10959,13 +10978,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E213" s="1" t="n"/>
+      <c r="E213" s="1" t="inlineStr"/>
       <c r="F213" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G213" s="1" t="n"/>
+      <c r="G213" s="1" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11004,13 +11023,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E214" s="1" t="n"/>
+      <c r="E214" s="1" t="inlineStr"/>
       <c r="F214" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G214" s="1" t="n"/>
+      <c r="G214" s="1" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11049,13 +11068,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E215" s="1" t="n"/>
+      <c r="E215" s="1" t="inlineStr"/>
       <c r="F215" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G215" s="1" t="n"/>
+      <c r="G215" s="1" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11094,13 +11113,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E216" s="1" t="n"/>
+      <c r="E216" s="1" t="inlineStr"/>
       <c r="F216" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G216" s="1" t="n"/>
+      <c r="G216" s="1" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11139,13 +11158,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E217" s="1" t="n"/>
+      <c r="E217" s="1" t="inlineStr"/>
       <c r="F217" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G217" s="1" t="n"/>
+      <c r="G217" s="1" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11184,13 +11203,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E218" s="1" t="n"/>
+      <c r="E218" s="1" t="inlineStr"/>
       <c r="F218" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G218" s="1" t="n"/>
+      <c r="G218" s="1" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11229,13 +11248,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E219" s="1" t="n"/>
+      <c r="E219" s="1" t="inlineStr"/>
       <c r="F219" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G219" s="1" t="n"/>
+      <c r="G219" s="1" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11274,13 +11293,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E220" s="1" t="n"/>
+      <c r="E220" s="1" t="inlineStr"/>
       <c r="F220" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G220" s="1" t="n"/>
+      <c r="G220" s="1" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11319,13 +11338,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E221" s="1" t="n"/>
+      <c r="E221" s="1" t="inlineStr"/>
       <c r="F221" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G221" s="1" t="n"/>
+      <c r="G221" s="1" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11364,13 +11383,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E222" s="1" t="n"/>
+      <c r="E222" s="1" t="inlineStr"/>
       <c r="F222" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G222" s="1" t="n"/>
+      <c r="G222" s="1" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11409,13 +11428,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E223" s="1" t="n"/>
+      <c r="E223" s="1" t="inlineStr"/>
       <c r="F223" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G223" s="1" t="n"/>
+      <c r="G223" s="1" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11454,13 +11473,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E224" s="1" t="n"/>
+      <c r="E224" s="1" t="inlineStr"/>
       <c r="F224" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G224" s="1" t="n"/>
+      <c r="G224" s="1" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11499,13 +11518,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E225" s="1" t="n"/>
+      <c r="E225" s="1" t="inlineStr"/>
       <c r="F225" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G225" s="1" t="n"/>
+      <c r="G225" s="1" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11544,13 +11563,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E226" s="1" t="n"/>
+      <c r="E226" s="1" t="inlineStr"/>
       <c r="F226" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G226" s="1" t="n"/>
+      <c r="G226" s="1" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11589,13 +11608,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E227" s="1" t="n"/>
+      <c r="E227" s="1" t="inlineStr"/>
       <c r="F227" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G227" s="1" t="n"/>
+      <c r="G227" s="1" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11634,13 +11653,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E228" s="1" t="n"/>
+      <c r="E228" s="1" t="inlineStr"/>
       <c r="F228" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G228" s="1" t="n"/>
+      <c r="G228" s="1" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11679,13 +11698,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E229" s="1" t="n"/>
+      <c r="E229" s="1" t="inlineStr"/>
       <c r="F229" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G229" s="1" t="n"/>
+      <c r="G229" s="1" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11724,13 +11743,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E230" s="1" t="n"/>
+      <c r="E230" s="1" t="inlineStr"/>
       <c r="F230" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G230" s="1" t="n"/>
+      <c r="G230" s="1" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11769,13 +11788,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E231" s="1" t="n"/>
+      <c r="E231" s="1" t="inlineStr"/>
       <c r="F231" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G231" s="1" t="n"/>
+      <c r="G231" s="1" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11814,13 +11833,13 @@
           <t xml:space="preserve">Roundsling </t>
         </is>
       </c>
-      <c r="E232" s="1" t="n"/>
+      <c r="E232" s="1" t="inlineStr"/>
       <c r="F232" s="1" t="inlineStr">
         <is>
           <t>6t</t>
         </is>
       </c>
-      <c r="G232" s="1" t="n"/>
+      <c r="G232" s="1" t="inlineStr"/>
       <c r="H232" t="inlineStr">
         <is>
           <t>SB344137</t>
@@ -11859,13 +11878,13 @@
           <t xml:space="preserve">Roundsling </t>
         </is>
       </c>
-      <c r="E233" s="1" t="n"/>
+      <c r="E233" s="1" t="inlineStr"/>
       <c r="F233" s="1" t="inlineStr">
         <is>
           <t>6t</t>
         </is>
       </c>
-      <c r="G233" s="1" t="n"/>
+      <c r="G233" s="1" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
           <t>SB344137</t>
@@ -11904,13 +11923,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E234" s="1" t="n"/>
+      <c r="E234" s="1" t="inlineStr"/>
       <c r="F234" s="1" t="inlineStr">
         <is>
           <t>3t</t>
         </is>
       </c>
-      <c r="G234" s="1" t="n"/>
+      <c r="G234" s="1" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
           <t>SB344138</t>
@@ -11949,13 +11968,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E235" s="1" t="n"/>
+      <c r="E235" s="1" t="inlineStr"/>
       <c r="F235" s="1" t="inlineStr">
         <is>
           <t>3t</t>
         </is>
       </c>
-      <c r="G235" s="1" t="n"/>
+      <c r="G235" s="1" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
           <t>SB344138</t>
@@ -11994,13 +12013,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E236" s="1" t="n"/>
+      <c r="E236" s="1" t="inlineStr"/>
       <c r="F236" s="1" t="inlineStr">
         <is>
           <t>5t</t>
         </is>
       </c>
-      <c r="G236" s="1" t="n"/>
+      <c r="G236" s="1" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
           <t>SB344139</t>
@@ -12039,13 +12058,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E237" s="1" t="n"/>
+      <c r="E237" s="1" t="inlineStr"/>
       <c r="F237" s="1" t="inlineStr">
         <is>
           <t>5t</t>
         </is>
       </c>
-      <c r="G237" s="1" t="n"/>
+      <c r="G237" s="1" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
           <t>SB344139</t>
@@ -12094,7 +12113,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G238" s="1" t="n"/>
+      <c r="G238" s="1" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12143,7 +12162,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G239" s="1" t="n"/>
+      <c r="G239" s="1" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12192,7 +12211,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G240" s="1" t="n"/>
+      <c r="G240" s="1" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12241,7 +12260,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G241" s="1" t="n"/>
+      <c r="G241" s="1" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12290,7 +12309,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G242" s="1" t="n"/>
+      <c r="G242" s="1" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12339,7 +12358,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G243" s="1" t="n"/>
+      <c r="G243" s="1" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12388,7 +12407,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G244" s="4" t="n"/>
+      <c r="G244" s="4" t="inlineStr"/>
       <c r="H244" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12441,10 +12460,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -12516,17 +12535,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>461915</t>
+          <t>ATR20760L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>500KG</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -12558,17 +12572,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>461916</t>
+          <t>ATR22757L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>500KG</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -12600,7 +12609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>461920</t>
+          <t>ATR19314L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -12611,11 +12620,6 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>TCB11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>500KG</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -12647,7 +12651,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>461926</t>
+          <t>ATR24260L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -12658,11 +12662,6 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>TCB14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1TE</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -12694,7 +12693,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>461929</t>
+          <t>ATR21579L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -12705,11 +12704,6 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>C4</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1TE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -12741,7 +12735,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>461938</t>
+          <t>ATR25180L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -12752,11 +12746,6 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>ProCB</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1TE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -12788,7 +12777,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>461963</t>
+          <t>ATR24221L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -12799,11 +12788,6 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>800KG</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -12835,17 +12819,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>461964</t>
+          <t>PSN15020</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>750KG</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -12872,17 +12851,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>461965</t>
+          <t>PSN13528(19897799)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>800KG</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -12909,7 +12883,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>461966</t>
+          <t>ATR24407L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -12920,11 +12894,6 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>800KG</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -12956,7 +12925,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>461974</t>
+          <t>ATR23551L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -12967,11 +12936,6 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>TLH11</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3TE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -13003,7 +12967,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>461976</t>
+          <t>ATR25183L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -13014,11 +12978,6 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>TRPA-32-00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -13045,17 +13004,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15437</t>
+          <t>CSTR486</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -13082,17 +13036,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>404997</t>
+          <t>LB6646(10661808)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>3T BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3TE</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -13119,7 +13068,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R42599</t>
+          <t>PSN9553</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -13130,11 +13079,6 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>S2A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3TE</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -13166,7 +13110,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>182291</t>
+          <t>ATR13984L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -13177,11 +13121,6 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>S3A</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5TE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -13213,7 +13152,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25887</t>
+          <t>ATR6498L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -13224,11 +13163,6 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>S2AX</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3TE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -13260,7 +13194,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R30715</t>
+          <t>GTH21497</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -13271,11 +13205,6 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>USC3A</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3TE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -13307,7 +13236,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R:39639</t>
+          <t>ATR21160L</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -13318,11 +13247,6 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>USC5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5TE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -13354,7 +13278,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2666070</t>
+          <t>PSN11941</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -13365,11 +13289,6 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5TE</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -13401,7 +13320,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>462005</t>
+          <t>ATR25050L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -13412,11 +13331,6 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>Trolley</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>500KG</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -13443,7 +13357,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>GTH14586</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -13454,11 +13368,6 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>BA1</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1TE</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -13490,7 +13399,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A H17894/039</t>
+          <t>GTH14995</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -13501,11 +13410,6 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>B1</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3TE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -13537,17 +13441,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>462008</t>
+          <t>WG21180</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -13574,17 +13473,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>448186</t>
+          <t>WG4437</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -13611,17 +13505,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>286857</t>
+          <t>PSN9536</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -13653,17 +13542,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SEE DESC</t>
+          <t>BRVJ6</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -13695,7 +13579,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2777/11613</t>
+          <t>23-969562</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -13706,11 +13590,6 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>RGL4</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -13742,22 +13621,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2777/15992</t>
+          <t xml:space="preserve"> 23-969624</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
+          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
+          <t>RGL4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -13789,27 +13663,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>363607.1</t>
+          <t xml:space="preserve"> 23-969559</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
+          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
+          <t>RGL4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -13836,27 +13705,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>489877</t>
+          <t xml:space="preserve"> 23-969535</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
+          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
+          <t>RGL4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -13883,27 +13747,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>379484.1</t>
+          <t>23-984615</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32B6</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>17.10TE</t>
+          <t>RGL28</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -13930,22 +13789,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>80254963</t>
+          <t xml:space="preserve"> 23-984645</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.00TE</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -13972,22 +13831,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>80268290</t>
+          <t xml:space="preserve"> 23-984690</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -14014,22 +13873,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>80271412</t>
+          <t xml:space="preserve"> 23-984594</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -14056,22 +13915,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>80254965</t>
+          <t>052375</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -14081,12 +13930,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -14098,22 +13947,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>80267482</t>
+          <t xml:space="preserve"> 052294</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -14123,12 +13962,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -14140,17 +13979,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>365096.G</t>
+          <t xml:space="preserve"> 051996</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 M10 0.33TE COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.33TE</t>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -14160,12 +13994,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -14177,17 +14011,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>370041.G</t>
+          <t xml:space="preserve"> 051799</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4 M30 4T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.00TE</t>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -14197,12 +14026,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -14214,17 +14043,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>377757.G</t>
+          <t xml:space="preserve"> 051826</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.25TE</t>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -14234,12 +14058,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -14251,17 +14075,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023/950</t>
+          <t xml:space="preserve"> 05237</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6.89TE</t>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -14271,12 +14090,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -14288,22 +14107,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SEE DESC.</t>
+          <t>T44345-077</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.30TE</t>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -14313,12 +14122,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -14330,17 +14139,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t xml:space="preserve"> T44345-078</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.00T</t>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -14367,17 +14171,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t xml:space="preserve"> T44345-079</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.00T</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -14404,17 +14203,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t xml:space="preserve"> T44345-0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.00T</t>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -14441,22 +14235,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>461915</t>
+          <t>42577-2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -14466,12 +14250,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -14483,22 +14267,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>461916</t>
+          <t xml:space="preserve"> 42486-2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hackett</t>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -14508,12 +14282,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -14525,27 +14299,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>461920</t>
+          <t xml:space="preserve"> 42708-2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>TCB11</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -14555,12 +14314,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -14572,27 +14331,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>461926</t>
+          <t xml:space="preserve"> 42488-2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>TCB14</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -14602,12 +14346,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -14619,27 +14363,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>461929</t>
+          <t xml:space="preserve"> 42964-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hackett</t>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -14649,12 +14378,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -14666,27 +14395,13 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>461938</t>
+          <t xml:space="preserve"> 42
+42672-2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ProCB</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -14696,12 +14411,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -14713,27 +14428,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>461963</t>
+          <t>T44345-071</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -14743,12 +14443,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -14760,17 +14460,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>461964</t>
+          <t xml:space="preserve"> T44345-072</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>750KG</t>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -14780,12 +14475,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -14797,17 +14492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>461965</t>
+          <t xml:space="preserve"> T44345-073</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>800KG</t>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -14817,12 +14507,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -14834,27 +14524,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>461966</t>
+          <t>E00403501319E621</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>XE200</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -14864,12 +14544,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -14881,27 +14561,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>461974</t>
+          <t xml:space="preserve"> E00403501319DD40</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TLH11</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Tiger</t>
+          <t>XE200</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -14911,12 +14581,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -14928,22 +14598,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>461976</t>
+          <t>E00403501838C971</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRPA-32-00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
+          <t>XE200</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -14953,12 +14618,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -14970,17 +14635,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>15437</t>
+          <t xml:space="preserve"> E004035016BCB820</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>XE200</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -14990,3337 +14655,15 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>404997</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3T BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>R42599</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>S2A</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>182291</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>S3A</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>25887</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>S2AX</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>R30715</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>USC3A</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>R:39639</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>USC5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2666070</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>5T TIGER BCU-0500 BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>462005</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Trolley</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>3320</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>BA1</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>A H17894/039</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>462008</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>448186</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>286857</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Yoke</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>SEE DESC</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>McKissick</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2777/11613</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2777/15992</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>363607.1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>489877</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>379484.1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>32B6</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>17.10TE</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>80254963</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1.00TE</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>80268290</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80271412</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>80254965</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>80267482</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>365096.G</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2 M10 0.33TE COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0.33TE</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>370041.G</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>4 M30 4T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>4.00TE</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>377757.G</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0.25TE</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2023/950</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>6.89TE</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SEE DESC.</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1.30TE</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1249</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>1011</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>461915</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>461916</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>461920</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>TCB11</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>461926</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>TCB14</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>461929</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>461938</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>ProCB</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>461963</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>461964</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>750KG</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>461965</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>461966</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>461974</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>TLH11</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>461976</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>TRPA-32-00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>15437</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>404997</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>3T BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>R42599</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>S2A</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>182291</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>S3A</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>25887</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>S2AX</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>R30715</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>USC3A</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>R:39639</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>USC5</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2666070</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>5T TIGER BCU-0500 BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>462005</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Trolley</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>3320</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>BA1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>A H17894/039</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>462008</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>448186</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>286857</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Yoke</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SEE DESC</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>McKissick</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2777/11613</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2777/15992</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>363607.1</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>489877</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>379484.1</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>32B6</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>17.10TE</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>80254963</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>1.00TE</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>80268290</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>80271412</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>80254965</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>80267482</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>365096.G</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2 M10 0.33TE COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>0.33TE</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>370041.G</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>4 M30 4T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>4.00TE</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>377757.G</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>0.25TE</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2023/950</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>6.89TE</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SEE DESC.</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>1.30TE</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>1249</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>1011</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
         <is>
           <t>15146980</t>
         </is>

--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -1088,13 +1088,13 @@
           <t xml:space="preserve">Wire Rope for Puller </t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="n"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>SB343983</t>
@@ -1133,13 +1133,13 @@
           <t xml:space="preserve">Wire Rope for Puller </t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="n"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
           <t>3.2t</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr"/>
+      <c r="G12" s="4" t="n"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>SB343984</t>
@@ -1868,7 +1868,7 @@
           <t xml:space="preserve">Snatch Block </t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="n"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
           <t>2t
@@ -2079,13 +2079,13 @@
           <t xml:space="preserve">Skate </t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="n"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>12t</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="n"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>SB344035</t>
@@ -2134,7 +2134,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="n"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2183,7 +2183,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="n"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2232,7 +2232,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="n"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2281,7 +2281,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="n"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2330,7 +2330,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="n"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2379,7 +2379,7 @@
           <t>4.1t</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="n"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>SB344054</t>
@@ -2428,7 +2428,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="n"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2477,7 +2477,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="n"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2527,7 +2527,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="n"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2576,7 +2576,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="n"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2625,7 +2625,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="n"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2674,7 +2674,7 @@
           <t>6.5t</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="n"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>SB344055</t>
@@ -2713,7 +2713,7 @@
           <t xml:space="preserve">Master Link </t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr"/>
+      <c r="E43" s="4" t="n"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
           <t>10.7t</t>
@@ -2762,7 +2762,7 @@
           <t xml:space="preserve">Master Link </t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr"/>
+      <c r="E44" s="4" t="n"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
           <t>10.7t</t>
@@ -2811,7 +2811,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
+      <c r="E45" s="4" t="n"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -2860,7 +2860,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr"/>
+      <c r="E46" s="4" t="n"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -2909,7 +2909,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr"/>
+      <c r="E47" s="4" t="n"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -2958,7 +2958,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="n"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3007,7 +3007,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="n"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3056,7 +3056,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr"/>
+      <c r="E50" s="4" t="n"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3105,7 +3105,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
+      <c r="E51" s="4" t="n"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3154,7 +3154,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr"/>
+      <c r="E52" s="4" t="n"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3203,7 +3203,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr"/>
+      <c r="E53" s="4" t="n"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3252,7 +3252,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr"/>
+      <c r="E54" s="4" t="n"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3301,7 +3301,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr"/>
+      <c r="E55" s="4" t="n"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3350,7 +3350,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr"/>
+      <c r="E56" s="4" t="n"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
           <t>1t</t>
@@ -3399,7 +3399,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr"/>
+      <c r="E57" s="4" t="n"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3448,7 +3448,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr"/>
+      <c r="E58" s="4" t="n"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3497,7 +3497,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr"/>
+      <c r="E59" s="4" t="n"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3546,7 +3546,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr"/>
+      <c r="E60" s="4" t="n"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3595,7 +3595,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr"/>
+      <c r="E61" s="4" t="n"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3644,7 +3644,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr"/>
+      <c r="E62" s="4" t="n"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3693,7 +3693,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr"/>
+      <c r="E63" s="4" t="n"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3742,7 +3742,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr"/>
+      <c r="E64" s="4" t="n"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
           <t>2t</t>
@@ -3791,7 +3791,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr"/>
+      <c r="E65" s="4" t="n"/>
       <c r="F65" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3840,7 +3840,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr"/>
+      <c r="E66" s="4" t="n"/>
       <c r="F66" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3889,7 +3889,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr"/>
+      <c r="E67" s="4" t="n"/>
       <c r="F67" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3938,7 +3938,7 @@
           <t xml:space="preserve">Wire Rope Sling </t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr"/>
+      <c r="E68" s="4" t="n"/>
       <c r="F68" s="1" t="inlineStr">
         <is>
           <t>5t</t>
@@ -3997,7 +3997,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G69" s="4" t="inlineStr"/>
+      <c r="G69" s="4" t="n"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4046,7 +4046,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G70" s="4" t="inlineStr"/>
+      <c r="G70" s="4" t="n"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4095,7 +4095,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G71" s="4" t="inlineStr"/>
+      <c r="G71" s="4" t="n"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4144,7 +4144,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G72" s="4" t="inlineStr"/>
+      <c r="G72" s="4" t="n"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4193,7 +4193,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G73" s="4" t="inlineStr"/>
+      <c r="G73" s="4" t="n"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4242,7 +4242,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G74" s="4" t="inlineStr"/>
+      <c r="G74" s="4" t="n"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4291,7 +4291,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G75" s="4" t="inlineStr"/>
+      <c r="G75" s="4" t="n"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4340,7 +4340,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G76" s="4" t="inlineStr"/>
+      <c r="G76" s="4" t="n"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4389,7 +4389,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G77" s="4" t="inlineStr"/>
+      <c r="G77" s="4" t="n"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4438,7 +4438,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G78" s="4" t="inlineStr"/>
+      <c r="G78" s="4" t="n"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4487,7 +4487,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G79" s="4" t="inlineStr"/>
+      <c r="G79" s="4" t="n"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4536,7 +4536,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G80" s="4" t="inlineStr"/>
+      <c r="G80" s="4" t="n"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4585,7 +4585,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G81" s="4" t="inlineStr"/>
+      <c r="G81" s="4" t="n"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4634,7 +4634,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G82" s="4" t="inlineStr"/>
+      <c r="G82" s="4" t="n"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4683,7 +4683,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G83" s="4" t="inlineStr"/>
+      <c r="G83" s="4" t="n"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4732,7 +4732,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G84" s="4" t="inlineStr"/>
+      <c r="G84" s="4" t="n"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4781,7 +4781,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G85" s="4" t="inlineStr"/>
+      <c r="G85" s="4" t="n"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4830,7 +4830,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G86" s="4" t="inlineStr"/>
+      <c r="G86" s="4" t="n"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4879,7 +4879,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G87" s="4" t="inlineStr"/>
+      <c r="G87" s="4" t="n"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4928,7 +4928,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="n"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -4977,7 +4977,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G89" s="4" t="inlineStr"/>
+      <c r="G89" s="4" t="n"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5026,7 +5026,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G90" s="4" t="inlineStr"/>
+      <c r="G90" s="4" t="n"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5075,7 +5075,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G91" s="4" t="inlineStr"/>
+      <c r="G91" s="4" t="n"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5124,7 +5124,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G92" s="4" t="inlineStr"/>
+      <c r="G92" s="4" t="n"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5173,7 +5173,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G93" s="4" t="inlineStr"/>
+      <c r="G93" s="4" t="n"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5222,7 +5222,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G94" s="4" t="inlineStr"/>
+      <c r="G94" s="4" t="n"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5271,7 +5271,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G95" s="4" t="inlineStr"/>
+      <c r="G95" s="4" t="n"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5320,7 +5320,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G96" s="4" t="inlineStr"/>
+      <c r="G96" s="4" t="n"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5369,7 +5369,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G97" s="4" t="inlineStr"/>
+      <c r="G97" s="4" t="n"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5418,7 +5418,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G98" s="4" t="inlineStr"/>
+      <c r="G98" s="4" t="n"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5467,7 +5467,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G99" s="4" t="inlineStr"/>
+      <c r="G99" s="4" t="n"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5516,7 +5516,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G100" s="4" t="inlineStr"/>
+      <c r="G100" s="4" t="n"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5565,7 +5565,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G101" s="4" t="inlineStr"/>
+      <c r="G101" s="4" t="n"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5614,7 +5614,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G102" s="4" t="inlineStr"/>
+      <c r="G102" s="4" t="n"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5663,7 +5663,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G103" s="4" t="inlineStr"/>
+      <c r="G103" s="4" t="n"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5712,7 +5712,7 @@
           <t>1t</t>
         </is>
       </c>
-      <c r="G104" s="4" t="inlineStr"/>
+      <c r="G104" s="4" t="n"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>SB344075</t>
@@ -5751,13 +5751,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E105" s="4" t="inlineStr"/>
+      <c r="E105" s="4" t="n"/>
       <c r="F105" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G105" s="4" t="inlineStr"/>
+      <c r="G105" s="4" t="n"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5796,13 +5796,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E106" s="4" t="inlineStr"/>
+      <c r="E106" s="4" t="n"/>
       <c r="F106" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G106" s="4" t="inlineStr"/>
+      <c r="G106" s="4" t="n"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5841,13 +5841,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E107" s="4" t="inlineStr"/>
+      <c r="E107" s="4" t="n"/>
       <c r="F107" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G107" s="4" t="inlineStr"/>
+      <c r="G107" s="4" t="n"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5886,13 +5886,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E108" s="4" t="inlineStr"/>
+      <c r="E108" s="4" t="n"/>
       <c r="F108" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G108" s="4" t="inlineStr"/>
+      <c r="G108" s="4" t="n"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5931,13 +5931,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E109" s="4" t="inlineStr"/>
+      <c r="E109" s="4" t="n"/>
       <c r="F109" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G109" s="4" t="inlineStr"/>
+      <c r="G109" s="4" t="n"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -5976,13 +5976,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr"/>
+      <c r="E110" s="4" t="n"/>
       <c r="F110" s="1" t="inlineStr">
         <is>
           <t>200kg</t>
         </is>
       </c>
-      <c r="G110" s="4" t="inlineStr"/>
+      <c r="G110" s="4" t="n"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>SB344083</t>
@@ -6031,7 +6031,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G111" s="4" t="inlineStr"/>
+      <c r="G111" s="4" t="n"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6080,7 +6080,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G112" s="4" t="inlineStr"/>
+      <c r="G112" s="4" t="n"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6129,7 +6129,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G113" s="4" t="inlineStr"/>
+      <c r="G113" s="4" t="n"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6178,7 +6178,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G114" s="4" t="inlineStr"/>
+      <c r="G114" s="4" t="n"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6227,7 +6227,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G115" s="4" t="inlineStr"/>
+      <c r="G115" s="4" t="n"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6276,7 +6276,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G116" s="4" t="inlineStr"/>
+      <c r="G116" s="4" t="n"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6325,7 +6325,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G117" s="4" t="inlineStr"/>
+      <c r="G117" s="4" t="n"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6374,7 +6374,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G118" s="4" t="inlineStr"/>
+      <c r="G118" s="4" t="n"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6423,7 +6423,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G119" s="4" t="inlineStr"/>
+      <c r="G119" s="4" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6472,7 +6472,7 @@
           <t>1.6t</t>
         </is>
       </c>
-      <c r="G120" s="4" t="inlineStr"/>
+      <c r="G120" s="4" t="n"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>SB344088</t>
@@ -6511,13 +6511,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr"/>
+      <c r="E121" s="4" t="n"/>
       <c r="F121" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G121" s="4" t="inlineStr"/>
+      <c r="G121" s="4" t="n"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6556,13 +6556,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E122" s="4" t="inlineStr"/>
+      <c r="E122" s="4" t="n"/>
       <c r="F122" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G122" s="4" t="inlineStr"/>
+      <c r="G122" s="4" t="n"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6601,13 +6601,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr"/>
+      <c r="E123" s="4" t="n"/>
       <c r="F123" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G123" s="4" t="inlineStr"/>
+      <c r="G123" s="4" t="n"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6646,13 +6646,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr"/>
+      <c r="E124" s="4" t="n"/>
       <c r="F124" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G124" s="4" t="inlineStr"/>
+      <c r="G124" s="4" t="n"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6691,13 +6691,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E125" s="4" t="inlineStr"/>
+      <c r="E125" s="4" t="n"/>
       <c r="F125" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G125" s="4" t="inlineStr"/>
+      <c r="G125" s="4" t="n"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6736,13 +6736,13 @@
           <t xml:space="preserve">Eyebolt </t>
         </is>
       </c>
-      <c r="E126" s="1" t="inlineStr"/>
+      <c r="E126" s="1" t="n"/>
       <c r="F126" s="1" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
       </c>
-      <c r="G126" s="1" t="inlineStr"/>
+      <c r="G126" s="1" t="n"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>SB344095</t>
@@ -6781,13 +6781,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E127" s="1" t="inlineStr"/>
+      <c r="E127" s="1" t="n"/>
       <c r="F127" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G127" s="1" t="inlineStr"/>
+      <c r="G127" s="1" t="n"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -6826,13 +6826,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E128" s="1" t="inlineStr"/>
+      <c r="E128" s="1" t="n"/>
       <c r="F128" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G128" s="1" t="inlineStr"/>
+      <c r="G128" s="1" t="n"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -6871,13 +6871,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E129" s="1" t="inlineStr"/>
+      <c r="E129" s="1" t="n"/>
       <c r="F129" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G129" s="1" t="inlineStr"/>
+      <c r="G129" s="1" t="n"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -6916,13 +6916,13 @@
           <t xml:space="preserve">Swivel Hoist Ring </t>
         </is>
       </c>
-      <c r="E130" s="1" t="inlineStr"/>
+      <c r="E130" s="1" t="n"/>
       <c r="F130" s="1" t="inlineStr">
         <is>
           <t>0.4t</t>
         </is>
       </c>
-      <c r="G130" s="1" t="inlineStr"/>
+      <c r="G130" s="1" t="n"/>
       <c r="H130" t="inlineStr">
         <is>
           <t>SB344098</t>
@@ -7067,7 +7067,7 @@
           <t xml:space="preserve">Crane Pennant </t>
         </is>
       </c>
-      <c r="E133" s="1" t="inlineStr"/>
+      <c r="E133" s="1" t="n"/>
       <c r="F133" s="1" t="inlineStr">
         <is>
           <t>20t</t>
@@ -7116,7 +7116,7 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
-      <c r="E134" s="1" t="inlineStr"/>
+      <c r="E134" s="1" t="n"/>
       <c r="F134" s="1" t="n"/>
       <c r="G134" s="1" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
-      <c r="E135" s="1" t="inlineStr"/>
+      <c r="E135" s="1" t="n"/>
       <c r="F135" s="1" t="n"/>
       <c r="G135" s="1" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
           <t xml:space="preserve">Manyard </t>
         </is>
       </c>
-      <c r="E136" s="1" t="inlineStr"/>
+      <c r="E136" s="1" t="n"/>
       <c r="F136" s="1" t="n"/>
       <c r="G136" s="1" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>1112900</v>
       </c>
       <c r="F182" s="1" t="n"/>
-      <c r="G182" s="1" t="inlineStr"/>
+      <c r="G182" s="1" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
           <t>SB344114</t>
@@ -9512,7 +9512,7 @@
         <v>1112900</v>
       </c>
       <c r="F183" s="1" t="n"/>
-      <c r="G183" s="1" t="inlineStr"/>
+      <c r="G183" s="1" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
           <t>SB344114</t>
@@ -9556,7 +9556,7 @@
         <v>1112900</v>
       </c>
       <c r="F184" s="1" t="n"/>
-      <c r="G184" s="1" t="inlineStr"/>
+      <c r="G184" s="1" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
           <t>SB344114</t>
@@ -10670,7 +10670,7 @@
         </is>
       </c>
     </row>
-    <row r="207">
+    <row r="207" ht="28" customHeight="1">
       <c r="A207" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10931,13 +10931,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E212" s="1" t="inlineStr"/>
+      <c r="E212" s="1" t="n"/>
       <c r="F212" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G212" s="1" t="inlineStr"/>
+      <c r="G212" s="1" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -10976,13 +10976,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E213" s="1" t="inlineStr"/>
+      <c r="E213" s="1" t="n"/>
       <c r="F213" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G213" s="1" t="inlineStr"/>
+      <c r="G213" s="1" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11021,13 +11021,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E214" s="1" t="inlineStr"/>
+      <c r="E214" s="1" t="n"/>
       <c r="F214" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G214" s="1" t="inlineStr"/>
+      <c r="G214" s="1" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11066,13 +11066,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E215" s="1" t="inlineStr"/>
+      <c r="E215" s="1" t="n"/>
       <c r="F215" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G215" s="1" t="inlineStr"/>
+      <c r="G215" s="1" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11111,13 +11111,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E216" s="1" t="inlineStr"/>
+      <c r="E216" s="1" t="n"/>
       <c r="F216" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G216" s="1" t="inlineStr"/>
+      <c r="G216" s="1" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11156,13 +11156,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E217" s="1" t="inlineStr"/>
+      <c r="E217" s="1" t="n"/>
       <c r="F217" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G217" s="1" t="inlineStr"/>
+      <c r="G217" s="1" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11201,13 +11201,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E218" s="1" t="inlineStr"/>
+      <c r="E218" s="1" t="n"/>
       <c r="F218" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G218" s="1" t="inlineStr"/>
+      <c r="G218" s="1" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11246,13 +11246,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E219" s="1" t="inlineStr"/>
+      <c r="E219" s="1" t="n"/>
       <c r="F219" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G219" s="1" t="inlineStr"/>
+      <c r="G219" s="1" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11291,13 +11291,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E220" s="1" t="inlineStr"/>
+      <c r="E220" s="1" t="n"/>
       <c r="F220" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G220" s="1" t="inlineStr"/>
+      <c r="G220" s="1" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11336,13 +11336,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E221" s="1" t="inlineStr"/>
+      <c r="E221" s="1" t="n"/>
       <c r="F221" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G221" s="1" t="inlineStr"/>
+      <c r="G221" s="1" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11381,13 +11381,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E222" s="1" t="inlineStr"/>
+      <c r="E222" s="1" t="n"/>
       <c r="F222" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G222" s="1" t="inlineStr"/>
+      <c r="G222" s="1" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11426,13 +11426,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E223" s="1" t="inlineStr"/>
+      <c r="E223" s="1" t="n"/>
       <c r="F223" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G223" s="1" t="inlineStr"/>
+      <c r="G223" s="1" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11471,13 +11471,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E224" s="1" t="inlineStr"/>
+      <c r="E224" s="1" t="n"/>
       <c r="F224" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G224" s="1" t="inlineStr"/>
+      <c r="G224" s="1" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11516,13 +11516,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E225" s="1" t="inlineStr"/>
+      <c r="E225" s="1" t="n"/>
       <c r="F225" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G225" s="1" t="inlineStr"/>
+      <c r="G225" s="1" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11561,13 +11561,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E226" s="1" t="inlineStr"/>
+      <c r="E226" s="1" t="n"/>
       <c r="F226" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G226" s="1" t="inlineStr"/>
+      <c r="G226" s="1" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11606,13 +11606,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E227" s="1" t="inlineStr"/>
+      <c r="E227" s="1" t="n"/>
       <c r="F227" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G227" s="1" t="inlineStr"/>
+      <c r="G227" s="1" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11651,13 +11651,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E228" s="1" t="inlineStr"/>
+      <c r="E228" s="1" t="n"/>
       <c r="F228" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G228" s="1" t="inlineStr"/>
+      <c r="G228" s="1" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11696,13 +11696,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E229" s="1" t="inlineStr"/>
+      <c r="E229" s="1" t="n"/>
       <c r="F229" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G229" s="1" t="inlineStr"/>
+      <c r="G229" s="1" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11741,13 +11741,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E230" s="1" t="inlineStr"/>
+      <c r="E230" s="1" t="n"/>
       <c r="F230" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G230" s="1" t="inlineStr"/>
+      <c r="G230" s="1" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11786,13 +11786,13 @@
           <t xml:space="preserve">Round Sling </t>
         </is>
       </c>
-      <c r="E231" s="1" t="inlineStr"/>
+      <c r="E231" s="1" t="n"/>
       <c r="F231" s="1" t="inlineStr">
         <is>
           <t>1t</t>
         </is>
       </c>
-      <c r="G231" s="1" t="inlineStr"/>
+      <c r="G231" s="1" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
           <t>SB344124</t>
@@ -11831,13 +11831,13 @@
           <t xml:space="preserve">Roundsling </t>
         </is>
       </c>
-      <c r="E232" s="1" t="inlineStr"/>
+      <c r="E232" s="1" t="n"/>
       <c r="F232" s="1" t="inlineStr">
         <is>
           <t>6t</t>
         </is>
       </c>
-      <c r="G232" s="1" t="inlineStr"/>
+      <c r="G232" s="1" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
           <t>SB344137</t>
@@ -11876,13 +11876,13 @@
           <t xml:space="preserve">Roundsling </t>
         </is>
       </c>
-      <c r="E233" s="1" t="inlineStr"/>
+      <c r="E233" s="1" t="n"/>
       <c r="F233" s="1" t="inlineStr">
         <is>
           <t>6t</t>
         </is>
       </c>
-      <c r="G233" s="1" t="inlineStr"/>
+      <c r="G233" s="1" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
           <t>SB344137</t>
@@ -11921,13 +11921,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E234" s="1" t="inlineStr"/>
+      <c r="E234" s="1" t="n"/>
       <c r="F234" s="1" t="inlineStr">
         <is>
           <t>3t</t>
         </is>
       </c>
-      <c r="G234" s="1" t="inlineStr"/>
+      <c r="G234" s="1" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
           <t>SB344138</t>
@@ -11966,13 +11966,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E235" s="1" t="inlineStr"/>
+      <c r="E235" s="1" t="n"/>
       <c r="F235" s="1" t="inlineStr">
         <is>
           <t>3t</t>
         </is>
       </c>
-      <c r="G235" s="1" t="inlineStr"/>
+      <c r="G235" s="1" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
           <t>SB344138</t>
@@ -12011,13 +12011,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E236" s="1" t="inlineStr"/>
+      <c r="E236" s="1" t="n"/>
       <c r="F236" s="1" t="inlineStr">
         <is>
           <t>5t</t>
         </is>
       </c>
-      <c r="G236" s="1" t="inlineStr"/>
+      <c r="G236" s="1" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
           <t>SB344139</t>
@@ -12056,13 +12056,13 @@
           <t xml:space="preserve">Webbing Sling </t>
         </is>
       </c>
-      <c r="E237" s="1" t="inlineStr"/>
+      <c r="E237" s="1" t="n"/>
       <c r="F237" s="1" t="inlineStr">
         <is>
           <t>5t</t>
         </is>
       </c>
-      <c r="G237" s="1" t="inlineStr"/>
+      <c r="G237" s="1" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
           <t>SB344139</t>
@@ -12111,7 +12111,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G238" s="1" t="inlineStr"/>
+      <c r="G238" s="1" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12160,7 +12160,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G239" s="1" t="inlineStr"/>
+      <c r="G239" s="1" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12209,7 +12209,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G240" s="1" t="inlineStr"/>
+      <c r="G240" s="1" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12258,7 +12258,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G241" s="1" t="inlineStr"/>
+      <c r="G241" s="1" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12307,7 +12307,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G242" s="1" t="inlineStr"/>
+      <c r="G242" s="1" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12356,7 +12356,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G243" s="1" t="inlineStr"/>
+      <c r="G243" s="1" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -12405,7 +12405,7 @@
           <t>4.75t</t>
         </is>
       </c>
-      <c r="G244" s="4" t="inlineStr"/>
+      <c r="G244" s="4" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
           <t>SB344142</t>
@@ -32662,10 +32662,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -32745,6 +32745,12 @@
           <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>500KG</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -32782,6 +32788,12 @@
           <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>500KG</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Hackett</t>
@@ -32824,6 +32836,11 @@
           <t>TCB11</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>500KG</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -32866,6 +32883,11 @@
           <t>TCB14</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1TE</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -32908,6 +32930,11 @@
           <t>C4</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1TE</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Hackett</t>
@@ -32950,6 +32977,11 @@
           <t>ProCB</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1TE</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -32992,6 +33024,11 @@
           <t>PROLH</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>800KG</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -33029,6 +33066,13 @@
           <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>750KG</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33061,6 +33105,13 @@
           <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>800KG</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33098,6 +33149,11 @@
           <t>PROLH</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>800KG</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -33140,6 +33196,11 @@
           <t>TLH11</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3TE</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -33182,6 +33243,12 @@
           <t>TRPA-32-00</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.2TE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33214,6 +33281,13 @@
           <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.2TE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33246,6 +33320,13 @@
           <t>3T BEAM CLAMP</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3TE</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33283,6 +33364,11 @@
           <t>S2A</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3TE</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33325,6 +33411,11 @@
           <t>S3A</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5TE</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33367,6 +33458,11 @@
           <t>S2AX</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3TE</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33409,6 +33505,11 @@
           <t>USC3A</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3TE</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33451,6 +33552,11 @@
           <t>USC5</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5TE</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33493,6 +33599,11 @@
           <t>BCU-0500</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5TE</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>Tiger</t>
@@ -33535,6 +33646,12 @@
           <t>Trolley</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>500KG</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33572,6 +33689,11 @@
           <t>BA1</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1TE</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33614,6 +33736,11 @@
           <t>B1</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3TE</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>Riley</t>
@@ -33651,6 +33778,13 @@
           <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2TH/FITTING</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33683,6 +33817,13 @@
           <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2TH/FITTING</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33715,6 +33856,12 @@
           <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2TH/FITTING</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>Yoke</t>
@@ -33752,6 +33899,12 @@
           <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2TH/FITTING</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>McKissick</t>
@@ -33781,17 +33934,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>23-969562</t>
+          <t>23-984615</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RGL4</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -33823,17 +33981,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23-969624</t>
+          <t xml:space="preserve"> 23-984645</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RGL4</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -33865,17 +34028,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23-969559</t>
+          <t xml:space="preserve"> 23-984690</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RGL4</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -33907,17 +34075,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23-969535</t>
+          <t xml:space="preserve"> 23-984594</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RGL4</t>
+          <t>RGL28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -33949,24 +34122,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>23-984615</t>
+          <t>052375</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33974,12 +34144,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -33991,24 +34161,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23-984645</t>
+          <t xml:space="preserve"> 052294</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34016,12 +34183,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -34033,24 +34200,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23-984690</t>
+          <t xml:space="preserve"> 051996</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34058,12 +34222,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -34075,24 +34239,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23-984594</t>
+          <t xml:space="preserve"> 051799</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34100,12 +34261,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -34117,7 +34278,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>052375</t>
+          <t xml:space="preserve"> 051826</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -34125,6 +34286,13 @@
           <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34149,7 +34317,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 052294</t>
+          <t xml:space="preserve"> 05237</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -34157,6 +34325,13 @@
           <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34181,14 +34356,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 051996</t>
+          <t>T44345-077</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34213,14 +34395,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 051799</t>
+          <t xml:space="preserve"> T44345-078</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34245,14 +34434,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 051826</t>
+          <t xml:space="preserve"> T44345-079</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34277,14 +34473,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05237</t>
+          <t xml:space="preserve"> T44345-0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34309,14 +34512,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>T44345-077</t>
+          <t>42577-2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34341,14 +34551,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T44345-078</t>
+          <t xml:space="preserve"> 42486-2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34373,14 +34590,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T44345-079</t>
+          <t xml:space="preserve"> 42708-2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34405,14 +34629,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T44345-0</t>
+          <t xml:space="preserve"> 42488-2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34437,7 +34668,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42577-2</t>
+          <t xml:space="preserve"> 42964-2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -34445,6 +34676,13 @@
           <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34469,7 +34707,8 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42486-2</t>
+          <t xml:space="preserve"> 42
+42672-2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -34477,6 +34716,13 @@
           <t>20 1TE 0.5M EWL ROUNDSLING</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34501,14 +34747,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42708-2</t>
+          <t>T44345-071</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34533,14 +34786,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42488-2</t>
+          <t xml:space="preserve"> T44345-072</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34565,14 +34825,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42964-2</t>
+          <t xml:space="preserve"> T44345-073</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34597,15 +34864,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42
-42672-2</t>
+          <t>E00403501319E621</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>XE200</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34630,14 +34907,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>T44345-071</t>
+          <t xml:space="preserve"> E00403501319DD40</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>XE200</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34662,14 +34950,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T44345-072</t>
+          <t>E00403501838C971</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>XE200</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34694,14 +34993,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T44345-073</t>
+          <t xml:space="preserve"> E004035016BCB820</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>XE200</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34726,4482 +35036,128 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>E00403501319E621</t>
+          <t>BJB1-3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>XE200</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 3mtr x 26 mm dia IWRC galv Fitted with hard eye each end Secured by flemish splice and steel sleeve C/W A344 25mm master link one end and BKL-16-10 CERT VALID FOR 7 MONTH FROM 13/12/2023</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.000 t</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312139</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>14/12/2023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> E00403501319DD40</t>
+          <t>BJG1-10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>XE200</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 1mtr x 10 mm dia FC galv Fitted with soft eye each end Secured by flemish splice and steel sleeve VALID FOR 7 MONTH FROM 13/12/2023</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.000 t</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312144</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>E00403501838C971</t>
+          <t>BJM1-10</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>XE200</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 4mtr x 13 mm dia FC galv Fitted with soft eye each end Secured by flemish splice and steel sleeve CERT VALID FOR 7 MONTH FROM 13/12/2023</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.000 t</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312150</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> E004035016BCB820</t>
+          <t>BJP1-2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>XE200</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 4mtr x 19 mm dia IWRC galv Fitted with soft eye each end Secured by flemish splice and steel sleeve CERT VALID FOR 7 MONTH FROM 13/12/2023</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.000 t</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312153</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>ATR20760L</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ATR22757L</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ATR19314L</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>TCB11</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ATR24260L</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>TCB14</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ATR21579L</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>ATR25180L</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ProCB</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ATR24221L</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>PSN15020</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>PSN13528(19897799)</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ATR24407L</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ATR23551L</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>TLH11</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ATR25183L</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>TRPA-32-00</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>CSTR486</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>LB6646(10661808)</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3T BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>PSN9553</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>S2A</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ATR13984L</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>S3A</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>ATR6498L</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>S2AX</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>GTH21497</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>USC3A</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ATR21160L</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>USC5</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>PSN11941</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>5T TIGER BCU-0500 BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ATR25050L</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Trolley</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>GTH14586</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>BA1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>GTH14995</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>WG21180</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>WG4437</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>PSN9536</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Yoke</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>BRVJ6</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>McKissick</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>23-969562</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-969624</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-969559</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-969535</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>23-984615</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-984645</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-984690</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-984594</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>052375</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 052294</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 051996</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 051799</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 051826</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05237</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>T44345-077</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-078</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-079</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-0</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>42577-2</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42486-2</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42708-2</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42488-2</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42964-2</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42
-42672-2</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>T44345-071</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-072</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-073</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>E00403501319E621</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> E00403501319DD40</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>E00403501838C971</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> E004035016BCB820</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>ATR20760L</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>ATR22757L</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>ATR19314L</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>TCB11</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>ATR24260L</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>TCB14</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>ATR21579L</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>ATR25180L</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>ProCB</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ATR24221L</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>PSN15020</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>PSN13528(19897799)</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ATR24407L</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>ATR23551L</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>TLH11</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ATR25183L</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>TRPA-32-00</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>CSTR486</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>LB6646(10661808)</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>3T BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>PSN9553</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>S2A</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>ATR13984L</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>S3A</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>ATR6498L</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>S2AX</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>GTH21497</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>USC3A</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>ATR21160L</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>USC5</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>PSN11941</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>5T TIGER BCU-0500 BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>ATR25050L</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Trolley</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>GTH14586</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>BA1</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>GTH14995</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>WG21180</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>WG4437</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>PSN9536</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Yoke</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>BRVJ6</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>McKissick</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>23-969562</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-969624</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-969559</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-969535</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>23-984615</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-984645</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-984690</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23-984594</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>052375</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 052294</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 051996</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 051799</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 051826</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05237</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>T44345-077</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-078</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-079</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-0</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>42577-2</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42486-2</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42708-2</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42488-2</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42964-2</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 42
-42672-2</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>T44345-071</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-072</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T44345-073</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>6 3TE 6M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>E00403501319E621</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> E00403501319DD40</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>E00403501838C971</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> E004035016BCB820</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>XE200</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>

--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:O730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -38497,55 +38497,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="10.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="121.08984375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="8.90625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.90625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="16.7265625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="8.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="17.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>GIE0189</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>AIR HOIST - 1 TONNE - 10MTR HOL C/W 10MTR PENDANT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>1.00 Tonnes</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ABZ/011196/39693</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Id Number</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>RFID</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Item Category </t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Item Description </t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>SWL</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>Certificate No</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Detailed Location </t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>Previous Inspection</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>Next Inspection Due Date</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>Fit For Purpose Y/N</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>Provider Identification</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GIT08555</t>
+          <t>GIE0189</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AIR HOIST - 2 TONNE - 15MTR HOL C/W 10MTR PENDANT</t>
-        </is>
-      </c>
+          <t>AIR HOIST - 1 TONNE - 10MTR HOL C/W 10MTR PENDANT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.00 Tonnes</t>
+          <t>1.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ABZ/011196/39693</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -38557,19 +38624,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GIT26471</t>
+          <t>GIT08555</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANGLE CLAMP - 1 TONNE AC2 - 38-101MM</t>
-        </is>
-      </c>
+          <t>AIR HOIST - 2 TONNE - 15MTR HOL C/W 10MTR PENDANT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.00 Tonnes</t>
-        </is>
-      </c>
+          <t>2.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38579,7 +38648,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GIT26472</t>
+          <t>GIT26471</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -38587,11 +38656,17 @@
           <t>ANGLE CLAMP - 1 TONNE AC2 - 38-101MM</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AC2</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38601,19 +38676,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIT18457</t>
+          <t>GIT26472</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
+          <t>ANGLE CLAMP - 1 TONNE AC2 - 38-101MM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AC2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00 Tonnes</t>
-        </is>
-      </c>
+          <t>1.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38623,7 +38704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GIT20245</t>
+          <t>GIT18457</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -38631,11 +38712,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38645,7 +38732,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GIT20723</t>
+          <t>GIT20245</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -38653,16 +38740,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ABZ/011196/39693</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38672,7 +38760,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GIT20263</t>
+          <t>GIT20723</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -38680,11 +38768,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38699,7 +38793,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GIT21153</t>
+          <t>GIT20263</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -38707,11 +38801,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38726,7 +38826,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIT20164</t>
+          <t>GIT21153</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -38734,11 +38834,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38753,7 +38859,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GIT20140</t>
+          <t>GIT20164</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -38761,11 +38867,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38780,7 +38892,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GIT18453</t>
+          <t>GIT20140</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -38788,11 +38900,17 @@
           <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38807,17 +38925,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GIT03864</t>
+          <t>GIT18453</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BEAM TROLLEY 6 TONNE - B2 - 105 - 305MM</t>
+          <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.00 Tonnes</t>
+          <t>3.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ABZ/011196/39693</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -38829,24 +38958,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GIT06483</t>
+          <t>GIT03864</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
+          <t>BEAM TROLLEY 6 TONNE - B2 - 105 - 305MM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.00 Tonnes</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ABZ/011196/39693</t>
-        </is>
-      </c>
+          <t>6.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38856,7 +38986,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GIT20474</t>
+          <t>GIT06483</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -38864,11 +38994,13 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38883,7 +39015,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GIT21573</t>
+          <t>GIT20474</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -38891,11 +39023,13 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38910,7 +39044,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GIT22412</t>
+          <t>GIT21573</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -38918,11 +39052,13 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38937,17 +39073,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GIT20005</t>
+          <t>GIT22412</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ABZ/011196/39693</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -38959,7 +39102,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GIT10519</t>
+          <t>GIT20005</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -38967,11 +39110,13 @@
           <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38981,7 +39126,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GIT08203</t>
+          <t>GIT10519</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -38989,11 +39134,13 @@
           <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39003,24 +39150,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GIT18866</t>
+          <t>GIT08203</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 250 KGS X 3MTR</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>250.00 Kilos</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ABZ/011196/39693</t>
-        </is>
-      </c>
+          <t>1.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39030,7 +39174,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GIT18882</t>
+          <t>GIT18866</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -39038,11 +39182,13 @@
           <t>CHAIN BLOCK 250 KGS X 3MTR</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39057,17 +39203,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GIT17038</t>
+          <t>GIT18882</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 250 KGS X 6MTR</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 250 KGS X 3MTR</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ABZ/011196/39693</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -39079,7 +39232,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GIT18901</t>
+          <t>GIT17038</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -39087,11 +39240,13 @@
           <t>CHAIN BLOCK 250 KGS X 6MTR</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39101,19 +39256,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GIT04245</t>
+          <t>GIT18901</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 5 TONNE X 6MTR</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 250 KGS X 6MTR</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.00 Tonnes</t>
-        </is>
-      </c>
+          <t>250.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39123,7 +39280,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GIT04837</t>
+          <t>GIT04245</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -39131,11 +39288,13 @@
           <t>CHAIN BLOCK 5 TONNE X 6MTR</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>5.00 Tonnes</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39145,24 +39304,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GIT18838</t>
+          <t>GIT04837</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 500 KGS X 3MTR</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 5 TONNE X 6MTR</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>500.00 Kilos</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ABZ/011196/39693</t>
-        </is>
-      </c>
+          <t>5.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39172,7 +39328,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GIT20737</t>
+          <t>GIT18838</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -39180,11 +39336,13 @@
           <t>CHAIN BLOCK 500 KGS X 3MTR</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39199,17 +39357,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GIT22633</t>
+          <t>GIT20737</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 500 KGS X 6MTR</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 500 KGS X 3MTR</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ABZ/011196/39693</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -39221,7 +39386,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GIT12801</t>
+          <t>GIT22633</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -39229,11 +39394,13 @@
           <t>CHAIN BLOCK 500 KGS X 6MTR</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39243,19 +39410,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GIT26457</t>
+          <t>GIT12801</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>INERTIA REEL -RGA3.3 GALV FALL ARREST BLOCK</t>
-        </is>
-      </c>
+          <t>CHAIN BLOCK 500 KGS X 6MTR</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>136.00 Kilos</t>
-        </is>
-      </c>
+          <t>500.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39265,19 +39434,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GIT22778</t>
+          <t>GIT26457</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PULL LIFT 1.6 TONNE X 3MTR</t>
-        </is>
-      </c>
+          <t>INERTIA REEL -RGA3.3 GALV FALL ARREST BLOCK</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.60 Tonnes</t>
-        </is>
-      </c>
+          <t>136.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39287,7 +39458,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GIT06431</t>
+          <t>GIT22778</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -39295,16 +39466,13 @@
           <t>PULL LIFT 1.6 TONNE X 3MTR</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>1.60 Tonnes</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ABZ/011196/39693</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39314,17 +39482,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GIT22544</t>
+          <t>GIT06431</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PULL LIFT 800 KGS X 1.5MTR</t>
-        </is>
-      </c>
+          <t>PULL LIFT 1.6 TONNE X 3MTR</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>750.00 Kilos</t>
+          <t>1.60 Tonnes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ABZ/011196/39693</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -39336,7 +39511,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GIT19762</t>
+          <t>GIT22544</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -39344,11 +39519,13 @@
           <t>PULL LIFT 800 KGS X 1.5MTR</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>750.00 Kilos</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39358,19 +39535,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GIT26459</t>
+          <t>GIT19762</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
-        </is>
-      </c>
+          <t>PULL LIFT 800 KGS X 1.5MTR</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>136.00 Kilos</t>
-        </is>
-      </c>
+          <t>750.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39380,19 +39559,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GIT22352</t>
+          <t>GIT26459</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
+          <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RGA4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4.00 Tonnes</t>
-        </is>
-      </c>
+          <t>136.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39402,19 +39587,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GIT06408</t>
+          <t>GIT22352</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TIRFOR MACHINE 3.2 TONNE C/W HANDLE</t>
-        </is>
-      </c>
+          <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.20 Tonnes</t>
-        </is>
-      </c>
+          <t>4.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39424,19 +39611,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GIT04707</t>
+          <t>GIT06408</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TIRFOR ROPE 3.2 TONNE X 20MTR</t>
-        </is>
-      </c>
+          <t>TIRFOR MACHINE 3.2 TONNE C/W HANDLE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>3.20 Tonnes</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39446,24 +39635,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GIA0615</t>
+          <t>GIT04707</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">6" SNATCH BLOCK 8 TONNE </t>
-        </is>
-      </c>
+          <t>TIRFOR ROPE 3.2 TONNE X 20MTR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>8.00 Tonnes</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ABZ/011208/39714</t>
-        </is>
-      </c>
+          <t>3.20 Tonnes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39473,7 +39659,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GIA0664</t>
+          <t>GIA0615</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39481,11 +39667,13 @@
           <t xml:space="preserve">6" SNATCH BLOCK 8 TONNE </t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
           <t>8.00 Tonnes</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39500,17 +39688,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GIT09372</t>
+          <t>GIA0664</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AIR HOIST - 3 TONNE - 15MTR HOL - 15MTR PENDANT</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6" SNATCH BLOCK 8 TONNE </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.00 Tonnes</t>
+          <t>8.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ABZ/011208/39714</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -39522,7 +39717,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GIT06791</t>
+          <t>GIT09372</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39530,11 +39725,13 @@
           <t>AIR HOIST - 3 TONNE - 15MTR HOL - 15MTR PENDANT</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39544,106 +39741,109 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>GIT06791</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AIR HOIST - 3 TONNE - 15MTR HOL - 15MTR PENDANT</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>GIT11821</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Name &amp; qualifications of person making the report
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>18/08/2023</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>17/03/2024</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>GIT03785</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Name &amp; qualifications of person making the report
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>18/08/2023</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>17/03/2024</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>GIT20196</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Name &amp; qualifications of person making the report
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>18/08/2023</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>GIT26458</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>136.00 Kilos</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ABZ/011208/39714</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -39655,7 +39855,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GIT26460</t>
+          <t>GIT26458</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -39663,11 +39863,17 @@
           <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>RGA4</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>136.00 Kilos</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39682,7 +39888,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GIT26461</t>
+          <t>GIT26460</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -39690,11 +39896,17 @@
           <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>RGA4</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>136.00 Kilos</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39709,7 +39921,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GIT26462</t>
+          <t>GIT26461</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -39717,11 +39929,17 @@
           <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>RGA4</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>136.00 Kilos</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39736,17 +39954,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GIT12528</t>
+          <t>GIT26462</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
+          <t>RETRIEVEABLE INERTIA REEL RGA4 - 15MTR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RGA4</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.00 Tonnes</t>
+          <t>136.00 Kilos</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>ABZ/011208/39714</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -39758,7 +39987,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GIA0714</t>
+          <t>GIT12528</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -39766,11 +39995,13 @@
           <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
         </is>
       </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
           <t>4.00 Tonnes</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39780,296 +40011,2656 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>GIA0714</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.00 Tonnes</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>GIT09442</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Name &amp; qualifications of person making the report
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>5.00 Tonnes</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
         <is>
           <t>18/08/2023</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>17/03/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SYE1-10</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1 TONNE</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SYE44-59</t>
+          <t>SYE1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ABZ/539613/0008</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SYE88-89</t>
+          <t>SYE2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ABZ/539613/0014</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>R1/185308/01-06</t>
+          <t>SYE3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ABZ/539613/0015</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>18/08/2023</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>R3/185296/01-10</t>
+          <t>SYE4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ABZ/539613/0027</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>18/08/2023</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SYE172-177</t>
+          <t>SYE5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6 X A344 17MM MASTER LINK</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4.1TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ABZ/539613/0030</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>18/08/2023</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SYE90-99</t>
+          <t>SYE6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ABZ/539613/0031</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>18/08/2023</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SYE148-165</t>
+          <t>SYE7</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3.25TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ABZ/539613/0037</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>18/08/2023</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>17/03/2024</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TAA1-2</t>
+          <t>SYE8</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
-        </is>
-      </c>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>8 TONNE</t>
-        </is>
-      </c>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ABZ/539976/0001</t>
+          <t>ABZ/539613/0002</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TAA3-4</t>
+          <t>SYE9</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SYE10</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SYE44</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SYE45</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SYE46</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SYE47</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SYE48</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SYE49</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SYE50</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SYE51</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SYE52</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SYE53</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SYE54</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SYE55</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SYE56</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SYE57</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SYE58</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SYE59</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2TONNE</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SYE88</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5TONNE</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0014</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SYE89</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5TONNE</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0014</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>R1/1853081</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0015</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R1/1853082</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0015</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R1/1853083</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0015</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R1/1853084</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0015</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R1/1853085</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0015</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R1/1853086</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1 TONNE</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0015</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R3/1852961</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R3/1852962</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R3/1852963</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R3/1852964</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R3/1852965</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R3/1852966</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R3/1852967</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R3/1852968</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R3/1852969</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R3/18529610</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3TONNE</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0027</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SYE172</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6 X A344 17MM MASTER LINK</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A344</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.1TONNE</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0030</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SYE173</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6 X A344 17MM MASTER LINK</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>A344</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.1TONNE</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0030</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SYE174</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6 X A344 17MM MASTER LINK</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>A344</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.1TONNE</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0030</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SYE175</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6 X A344 17MM MASTER LINK</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>A344</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.1TONNE</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0030</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SYE176</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6 X A344 17MM MASTER LINK</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>A344</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.1TONNE</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0030</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SYE177</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6 X A344 17MM MASTER LINK</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>A344</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.1TONNE</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0030</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SYE90</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SYE91</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SYE92</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SYE93</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SYE94</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SYE95</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SYE96</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SYE97</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SYE98</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SYE99</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>10 X 1 TONNE SCREW PIN BOW SHACKLE G-209</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>G-209</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1TONNE</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0031</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SYE148</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SYE149</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SYE150</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SYE151</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SYE152</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SYE153</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SYE154</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SYE155</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SYE156</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SYE157</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SYE158</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SYE159</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SYE160</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SYE161</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SYE162</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SYE163</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SYE164</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SYE165</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>18 X 3.25 TONNE SAFETY PIN BOW SHACKLE G-2130</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>G-2130</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.25TONNE</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>ABZ/539613/0037</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TAA1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
         <is>
           <t>8 TONNE</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>ABZ/539976/0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TAA2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>8 TONNE</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>ABZ/539976/0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TAA3</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8 TONNE</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ABZ/539976/0002</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TAA4</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>8 TONNE</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
         <is>
           <t>ABZ/539976/0002</t>
         </is>

--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -38500,7 +38500,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD136"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -39770,11 +39770,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Name &amp; qualifications of person making the report
-Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
@@ -39800,11 +39803,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Name &amp; qualifications of person making the report
-Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
@@ -39830,11 +39836,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Name &amp; qualifications of person making the report
-Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>BEAM CLAMP - 3 TONNE BCU-0300 125-204MM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>BCU-0300</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
@@ -40040,17 +40049,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Name &amp; qualifications of person making the report
-Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>SUPERCLAMP - 5 TONNE - USC5 125 - 305MM</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>USC5</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>5.00 Tonnes</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Superclamp</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>18/08/2023</t>

--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sparrows" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Centurion" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="First Integrated" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sparrows" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Centurion" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="First Integrated" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,29 +18,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <color indexed="8"/>
       <sz val="11"/>
@@ -54,12 +54,19 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,7 +123,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="Cell" xfId="1"/>
     <cellStyle name="Cell 2" xfId="2"/>
   </cellStyles>
@@ -501,23 +508,23 @@
       <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col width="24" customWidth="1" style="7" min="1" max="1"/>
-    <col hidden="1" width="13.36328125" customWidth="1" min="2" max="2"/>
-    <col hidden="1" width="14.453125" customWidth="1" min="3" max="3"/>
-    <col width="48.54296875" customWidth="1" min="4" max="4"/>
-    <col width="10.81640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="16.453125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14.6328125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="15.1796875" customWidth="1" min="8" max="8"/>
-    <col hidden="1" width="15.81640625" customWidth="1" min="9" max="9"/>
+    <col hidden="1" width="13.33203125" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="14.4140625" customWidth="1" min="3" max="3"/>
+    <col width="48.5" customWidth="1" min="4" max="4"/>
+    <col width="10.83203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="16.4140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="15.1640625" customWidth="1" min="8" max="8"/>
+    <col hidden="1" width="15.83203125" customWidth="1" min="9" max="9"/>
     <col hidden="1" width="19" customWidth="1" min="10" max="10"/>
-    <col width="20.453125" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="26.81640625" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col hidden="1" width="20.6328125" customWidth="1" min="13" max="13"/>
-    <col hidden="1" width="7.36328125" customWidth="1" min="14" max="14"/>
-    <col width="23.453125" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="20.4140625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="26.83203125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col hidden="1" width="20.6640625" customWidth="1" min="13" max="13"/>
+    <col hidden="1" width="7.33203125" customWidth="1" min="14" max="14"/>
+    <col width="23.4140625" bestFit="1" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -32639,29 +32646,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O95" sqref="A2:O95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="0.08984375" customWidth="1" min="2" max="2"/>
-    <col hidden="1" width="8.6328125" customWidth="1" min="3" max="3"/>
-    <col width="76.453125" customWidth="1" min="4" max="4"/>
-    <col width="11.7265625" customWidth="1" min="5" max="5"/>
-    <col width="12.1796875" customWidth="1" min="6" max="6"/>
-    <col width="14.6328125" customWidth="1" min="7" max="7"/>
-    <col width="15.1796875" customWidth="1" min="8" max="8"/>
-    <col width="0.08984375" customWidth="1" min="9" max="9"/>
-    <col width="0.1796875" customWidth="1" min="10" max="10"/>
-    <col width="20.453125" customWidth="1" min="11" max="11"/>
-    <col width="17.36328125" customWidth="1" min="12" max="12"/>
-    <col width="0.1796875" customWidth="1" min="13" max="13"/>
-    <col width="0.08984375" customWidth="1" min="14" max="14"/>
-    <col width="19.6328125" customWidth="1" min="15" max="15"/>
+    <col width="0.08203125" customWidth="1" min="2" max="2"/>
+    <col hidden="1" width="8.6640625" customWidth="1" min="3" max="3"/>
+    <col width="76.4140625" customWidth="1" min="4" max="4"/>
+    <col width="11.75" customWidth="1" min="5" max="5"/>
+    <col width="12.1640625" customWidth="1" min="6" max="6"/>
+    <col width="14.6640625" customWidth="1" min="7" max="7"/>
+    <col width="15.1640625" customWidth="1" min="8" max="8"/>
+    <col width="0.08203125" customWidth="1" min="9" max="9"/>
+    <col width="0.1640625" customWidth="1" min="10" max="10"/>
+    <col width="20.4140625" customWidth="1" min="11" max="11"/>
+    <col width="17.33203125" customWidth="1" min="12" max="12"/>
+    <col width="0.1640625" customWidth="1" min="13" max="13"/>
+    <col width="0.08203125" customWidth="1" min="14" max="14"/>
+    <col width="19.6640625" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32714,7 +32721,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>461915</t>
+          <t>ATR20760L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -32722,6 +32729,7 @@
           <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>500KG</t>
@@ -32756,7 +32764,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>461916</t>
+          <t>ATR22757L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -32764,6 +32772,7 @@
           <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>500KG</t>
@@ -32798,7 +32807,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>461920</t>
+          <t>ATR19314L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -32845,7 +32854,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>461926</t>
+          <t>ATR24260L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -32892,7 +32901,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>461929</t>
+          <t>ATR21579L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -32939,7 +32948,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>461938</t>
+          <t>ATR25180L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -32986,7 +32995,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>461963</t>
+          <t>ATR24221L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -33033,7 +33042,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>461964</t>
+          <t>PSN15020</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -33041,11 +33050,13 @@
           <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>750KG</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33070,7 +33081,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>461965</t>
+          <t>PSN13528(19897799)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -33078,11 +33089,13 @@
           <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>800KG</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33107,7 +33120,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>461966</t>
+          <t>ATR24407L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -33154,7 +33167,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>461974</t>
+          <t>ATR23551L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -33201,7 +33214,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>461976</t>
+          <t>ATR25183L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -33219,6 +33232,7 @@
           <t>3.2TE</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33243,7 +33257,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15437</t>
+          <t>CSTR486</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -33251,11 +33265,13 @@
           <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>3.2TE</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33280,7 +33296,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>404997</t>
+          <t>LB6646(10661808)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -33288,11 +33304,13 @@
           <t>3T BEAM CLAMP</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>3TE</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33317,7 +33335,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R42599</t>
+          <t>PSN9553</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -33364,7 +33382,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>182291</t>
+          <t>ATR13984L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -33411,7 +33429,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25887</t>
+          <t>ATR6498L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -33458,7 +33476,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R30715</t>
+          <t>GTH21497</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -33505,7 +33523,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R:39639</t>
+          <t>ATR21160L</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -33552,7 +33570,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2666070</t>
+          <t>PSN11941</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -33599,7 +33617,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>462005</t>
+          <t>ATR25050L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -33617,6 +33635,7 @@
           <t>500KG</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33641,7 +33660,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>GTH14586</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -33688,7 +33707,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A H17894/039</t>
+          <t>GTH14995</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -33735,7 +33754,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>462008</t>
+          <t>WG21180</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -33743,11 +33762,13 @@
           <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>2TH/FITTING</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33772,7 +33793,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>448186</t>
+          <t>WG4437</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33780,11 +33801,13 @@
           <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>2TH/FITTING</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -33809,7 +33832,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>286857</t>
+          <t>PSN9536</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33817,6 +33840,7 @@
           <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>2TH/FITTING</t>
@@ -33851,7 +33875,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SEE DESC</t>
+          <t>BRVJ6</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -33859,6 +33883,7 @@
           <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>2TH/FITTING</t>
@@ -33893,7 +33918,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2777/11613</t>
+          <t>23-969562</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -33940,17 +33965,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2777/15992</t>
+          <t xml:space="preserve"> 23-969624</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
+          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RGL28</t>
+          <t>RGL4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -33987,27 +34012,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>363607.1</t>
+          <t xml:space="preserve"> 23-969559</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
+          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16B6</t>
+          <t>RGL4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.10TE</t>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -34034,27 +34059,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>489877</t>
+          <t xml:space="preserve"> 23-969535</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
+          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16B6</t>
+          <t>RGL4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.10TE</t>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -34081,27 +34106,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>379484.1</t>
+          <t>23-984615</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32B6</t>
+          <t>RGL28</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>17.10TE</t>
+          <t>140.00KG</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -34128,22 +34153,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>80254963</t>
+          <t xml:space="preserve"> 23-984645</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G4161</t>
+          <t>RGL28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.00TE</t>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -34170,22 +34200,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>80268290</t>
+          <t xml:space="preserve"> 23-984690</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G4161</t>
+          <t>RGL28</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12.00TE</t>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -34212,22 +34247,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>80271412</t>
+          <t xml:space="preserve"> 23-984594</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
+          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G4161</t>
+          <t>RGL28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>12.00TE</t>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Ridgegear</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -34254,24 +34294,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>80254965</t>
+          <t>052375</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34279,12 +34316,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -34296,24 +34333,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>80267482</t>
+          <t xml:space="preserve"> 052294</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34321,12 +34355,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -34338,19 +34372,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>365096.G</t>
+          <t xml:space="preserve"> 051996</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 M10 0.33TE COLLAR EYEBOLT</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.33TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34358,12 +34394,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -34375,19 +34411,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>370041.G</t>
+          <t xml:space="preserve"> 051799</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4 M30 4T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.00TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34395,12 +34433,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -34412,19 +34450,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>377757.G</t>
+          <t xml:space="preserve"> 051826</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.25TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34432,12 +34472,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -34449,19 +34489,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023/950</t>
+          <t xml:space="preserve"> 05237</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
-        </is>
-      </c>
+          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6.89TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34469,12 +34511,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -34486,24 +34528,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SEE DESC.</t>
+          <t>T44345-077</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
-      </c>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.30TE</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34511,12 +34550,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -34528,19 +34567,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t xml:space="preserve"> T44345-078</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
+          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>1.00T</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34565,7 +34606,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t xml:space="preserve"> T44345-079</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -34573,11 +34614,13 @@
           <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>1.00T</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34602,19 +34645,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t xml:space="preserve"> T44345-0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.00T</t>
-        </is>
-      </c>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34639,24 +34684,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>461915</t>
+          <t>42577-2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34664,12 +34706,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -34681,24 +34723,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>461916</t>
+          <t xml:space="preserve"> 42486-2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34706,12 +34745,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -34723,29 +34762,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>461920</t>
+          <t xml:space="preserve"> 42708-2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>TCB11</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34753,12 +34784,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -34770,29 +34801,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>461926</t>
+          <t xml:space="preserve"> 42488-2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>TCB14</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34800,12 +34823,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -34817,29 +34840,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>461929</t>
+          <t xml:space="preserve"> 42964-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34847,12 +34862,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -34864,29 +34879,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>461938</t>
+          <t xml:space="preserve"> 42
+42672-2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ProCB</t>
-        </is>
-      </c>
+          <t>20 1TE 0.5M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>1.00T</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34894,12 +34902,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -34911,29 +34919,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>461963</t>
+          <t>T44345-071</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34941,12 +34941,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -34958,19 +34958,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>461964</t>
+          <t xml:space="preserve"> T44345-072</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>750KG</t>
-        </is>
-      </c>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -34978,12 +34980,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -34995,19 +34997,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>461965</t>
+          <t xml:space="preserve"> T44345-073</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
+          <t>6 3TE 6M EWL ROUNDSLING</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>800KG</t>
-        </is>
-      </c>
+          <t>3.00T</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -35015,12 +35019,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -35032,29 +35036,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>461966</t>
+          <t>E00403501319E621</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PROLH</t>
+          <t>XE200</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -35062,12 +35062,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -35079,29 +35079,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>461974</t>
+          <t xml:space="preserve"> E00403501319DD40</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 2) with auto-locking quick connect buckles</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TLH11</t>
+          <t>XE200</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -35109,12 +35105,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -35126,24 +35122,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>461976</t>
+          <t>E00403501838C971</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRPA-32-00</t>
+          <t>XE200</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.2TE</t>
-        </is>
-      </c>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -35151,12 +35148,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -35168,19 +35165,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>15437</t>
+          <t xml:space="preserve"> E004035016BCB820</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
+          <t>2 DBI-SALA ExoFit XE200 (Size 3) with auto-locking quick connect buckles</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>XE200</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.2TE</t>
-        </is>
-      </c>
+          <t>140.00KG</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>15146980</t>
@@ -35188,12 +35191,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>28/07/2024</t>
+          <t>27/07/2024</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -35205,3284 +35208,128 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>404997</t>
+          <t>BJB1-3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3T BEAM CLAMP</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 3mtr x 26 mm dia IWRC galv Fitted with hard eye each end Secured by flemish splice and steel sleeve C/W A344 25mm master link one end and BKL-16-10 CERT VALID FOR 7 MONTH FROM 13/12/2023</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3TE</t>
+          <t>8.000 t</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312139</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>14/12/2023</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>R42599</t>
+          <t>BJG1-10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>S2A</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 1mtr x 10 mm dia FC galv Fitted with soft eye each end Secured by flemish splice and steel sleeve VALID FOR 7 MONTH FROM 13/12/2023</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3TE</t>
+          <t>1.000 t</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Riley</t>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312144</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>182291</t>
+          <t>BJM1-10</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>S3A</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 4mtr x 13 mm dia FC galv Fitted with soft eye each end Secured by flemish splice and steel sleeve CERT VALID FOR 7 MONTH FROM 13/12/2023</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5TE</t>
+          <t>2.000 t</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Riley</t>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312150</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>25887</t>
+          <t>BJP1-2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>S2AX</t>
+          <t>Single leg wire rope sling to EN13414-1 Single leg 4mtr x 19 mm dia IWRC galv Fitted with soft eye each end Secured by flemish splice and steel sleeve CERT VALID FOR 7 MONTH FROM 13/12/2023</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3TE</t>
+          <t>4.000 t</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Riley</t>
+          <t>Hendrik Veder</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15146980</t>
+          <t>2312153</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>R30715</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>USC3A</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>R:39639</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>USC5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2666070</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>5T TIGER BCU-0500 BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>462005</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Trolley</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>3320</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>BA1</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>A H17894/039</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>462008</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>448186</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>286857</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Yoke</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>SEE DESC</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>McKissick</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2777/11613</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2777/15992</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>363607.1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>489877</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>379484.1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>32B6</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>17.10TE</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>80254963</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1.00TE</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>80268290</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80271412</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>80254965</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>80267482</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>365096.G</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2 M10 0.33TE COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0.33TE</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>370041.G</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>4 M30 4T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>4.00TE</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>377757.G</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0.25TE</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2023/950</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>6.89TE</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SEE DESC.</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1.30TE</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>1249</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>1011</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>461915</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M TIGER SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>461916</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>CHAIN BLOCK 500KG 3M HACKETT SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>461920</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TIGER TCB11 500KG 3MTR CHAINBLOCK SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>TCB11</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>461926</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 3M TIGER TCB14 21120400 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>TCB14</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>461929</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1TE 3M HACKETT C4 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Hackett</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>461938</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>CHAINBLOCK 1T 6M TIGER PROCB 22040435 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>ProCB</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>461963</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>461964</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 750KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>750KG</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>461965</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>461966</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 800KG 1.5M TIGER PROLH 21050846 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>PROLH</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>800KG</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>461974</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>LEVER HOIST 3T 6M TIGER TLH11 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>TLH11</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>461976</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>WIRE ROPE PULLING MACHINE 3.2T TRPA-32-00 SUBJECT TO LIGHT LOAD TEST @ 5% SWL</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>TRPA-32-00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>15437</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>TIRFOR MACHINE WIRE 20M 3.2T</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>3.2TE</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>404997</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>3T BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>R42599</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>RILEY S2A 3T BEAM CLAMP 76-190MM</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>S2A</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>182291</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>RILEY S3A 5T BEAM CLAMP 150-305MM</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>S3A</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>25887</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>RILEY S2AX 3T BEAM CLAMP 127-350MM</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>S2AX</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>R30715</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>RILEY USC3A 3T UNIVERSAL SUPER CLAMP 125-204MM</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>USC3A</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>R:39639</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>RILEY USC5 5T UNIVERSAL CLAMP</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>USC5</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2666070</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>5T TIGER BCU-0500 BEAM CLAMP</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>BCU-0500</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>5TE</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Tiger</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>462005</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">500KG BEAM TROLLEY Geared </t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Trolley</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>500KG</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>3320</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>RILEY BA1 1TE BEAM TROLLEY 63-203MM</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>BA1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>1TE</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>A H17894/039</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RILEY B1 3T BEAM TROLLEY 76-203MM Push </t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>3TE</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Riley</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>462008</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3" 2T G. TAYLOR SNATCHBLOCK 3" SWL @ LINEPULL</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>448186</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>3" 2T ANSELL JONES SNATCHBLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>286857</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>3" 2T YOKE SNATCH BLOCK 3" SWL@LINE PULL 1TE F.O.S 4</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Yoke</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SEE DESC</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>3" 2T MCKISSICK SNATCHBLOCK 2 TH/FITTING 1TE @ LINE PULL CERT NO</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2TH/FITTING</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>McKissick</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2777/11613</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL4 450MM SHORT TAIL LANYARD C/W DELTA LINK ONE END</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>RGL4</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2777/15992</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>4 RIDGEGEAR RGL28 2MTR TWIN TAIL LANYARD C/W SCAFFOLD HOOKS</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>RGL28</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>140.00KG</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Ridgegear</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>363607.1</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>489877</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2 16MM FRAM 4.1T 16B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>16B6</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>4.10TE</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>379484.1</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>3 32MM FRAM 17.1T 32B6 MASTERLINK</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>32B6</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>17.10TE</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Fram</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>80254963</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>20 1T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>1.00TE</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>80268290</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>80271412</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>3 12T G4161 SCREW PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>G4161</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>12.00TE</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>80254965</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>80267482</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>6 3.25T G4163 SAFETY PIN BOW SHACKLE</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G4163</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>3.25TE</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>365096.G</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2 M10 0.33TE COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>0.33TE</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>15/12/2023</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>14/07/2024</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>370041.G</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>4 M30 4T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>4.00TE</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>377757.G</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2 3/8" UNC 0.25T HW COLLAR EYEBOLT</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>0.25TE</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2023/950</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2 T/BUCKLE JAW &amp; JAW 11/4" X 12" GC</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>6.89TE</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SEE DESC.</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>4 M12 SWIVEL HOIST RING HR125M M12 SWIV.HST RING M12X1,75X17,2MM 1,30T (1016624) CERT NO</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>1.30TE</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>29/12/2023</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>1249</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>20 1T 1M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>10 1T 1.5M FLAT DUPLEX WEB SLING</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>1011</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>20 1TE 0.5M EWL ROUNDSLING</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>1.00T</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>15146980</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>15146980</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>
@@ -38499,20 +35346,20 @@
   </sheetPr>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="10.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="121.08984375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="8.90625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.90625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.7265625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="8.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="17.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.25" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="121.08203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="8.9140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.9140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="16.75" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="8.83203125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="17.5" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -38603,13 +35450,11 @@
           <t>AIR HOIST - 1 TONNE - 10MTR HOL C/W 10MTR PENDANT</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38632,13 +35477,11 @@
           <t>AIR HOIST - 2 TONNE - 15MTR HOL C/W 10MTR PENDANT</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>2.00 Tonnes</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38666,7 +35509,6 @@
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38694,7 +35536,6 @@
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38722,7 +35563,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38750,7 +35590,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38778,7 +35617,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38811,7 +35649,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38844,7 +35681,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38877,7 +35713,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38910,7 +35745,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38943,7 +35777,6 @@
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -38976,7 +35809,6 @@
           <t>6.00 Tonnes</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -38994,13 +35826,11 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39023,13 +35853,11 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39052,13 +35880,11 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39081,13 +35907,11 @@
           <t>CHAIN BLOCK 1 TONNE X 3MTR</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39110,13 +35934,11 @@
           <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39134,13 +35956,11 @@
           <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39158,13 +35978,11 @@
           <t>CHAIN BLOCK 1 TONNE X 6MTR</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>1.00 Tonnes</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39182,13 +36000,11 @@
           <t>CHAIN BLOCK 250 KGS X 3MTR</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39211,13 +36027,11 @@
           <t>CHAIN BLOCK 250 KGS X 3MTR</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39240,13 +36054,11 @@
           <t>CHAIN BLOCK 250 KGS X 6MTR</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39264,13 +36076,11 @@
           <t>CHAIN BLOCK 250 KGS X 6MTR</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>250.00 Kilos</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39288,13 +36098,11 @@
           <t>CHAIN BLOCK 5 TONNE X 6MTR</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>5.00 Tonnes</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39312,13 +36120,11 @@
           <t>CHAIN BLOCK 5 TONNE X 6MTR</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>5.00 Tonnes</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39336,13 +36142,11 @@
           <t>CHAIN BLOCK 500 KGS X 3MTR</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39365,13 +36169,11 @@
           <t>CHAIN BLOCK 500 KGS X 3MTR</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39394,13 +36196,11 @@
           <t>CHAIN BLOCK 500 KGS X 6MTR</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39418,13 +36218,11 @@
           <t>CHAIN BLOCK 500 KGS X 6MTR</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
           <t>500.00 Kilos</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39442,13 +36240,11 @@
           <t>INERTIA REEL -RGA3.3 GALV FALL ARREST BLOCK</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>136.00 Kilos</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39466,13 +36262,11 @@
           <t>PULL LIFT 1.6 TONNE X 3MTR</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>1.60 Tonnes</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39490,13 +36284,11 @@
           <t>PULL LIFT 1.6 TONNE X 3MTR</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>1.60 Tonnes</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>ABZ/011196/39693</t>
@@ -39519,13 +36311,11 @@
           <t>PULL LIFT 800 KGS X 1.5MTR</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>750.00 Kilos</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39543,13 +36333,11 @@
           <t>PULL LIFT 800 KGS X 1.5MTR</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
           <t>750.00 Kilos</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39577,7 +36365,6 @@
           <t>136.00 Kilos</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39595,13 +36382,11 @@
           <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>4.00 Tonnes</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39619,13 +36404,11 @@
           <t>TIRFOR MACHINE 3.2 TONNE C/W HANDLE</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>3.20 Tonnes</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39643,13 +36426,11 @@
           <t>TIRFOR ROPE 3.2 TONNE X 20MTR</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
           <t>3.20 Tonnes</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39667,13 +36448,11 @@
           <t xml:space="preserve">6" SNATCH BLOCK 8 TONNE </t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
           <t>8.00 Tonnes</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39696,13 +36475,11 @@
           <t xml:space="preserve">6" SNATCH BLOCK 8 TONNE </t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
           <t>8.00 Tonnes</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39725,13 +36502,11 @@
           <t>AIR HOIST - 3 TONNE - 15MTR HOL - 15MTR PENDANT</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39749,13 +36524,11 @@
           <t>AIR HOIST - 3 TONNE - 15MTR HOL - 15MTR PENDANT</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -39774,13 +36547,11 @@
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>18/08/2023</t>
@@ -39804,13 +36575,11 @@
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>18/08/2023</t>
@@ -39834,13 +36603,11 @@
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t>3.00 Tonnes</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>18/08/2023</t>
@@ -39873,7 +36640,6 @@
           <t>136.00 Kilos</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39906,7 +36672,6 @@
           <t>136.00 Kilos</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39939,7 +36704,6 @@
           <t>136.00 Kilos</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39972,7 +36736,6 @@
           <t>136.00 Kilos</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>ABZ/011208/39714</t>
@@ -39995,13 +36758,11 @@
           <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
           <t>4.00 Tonnes</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -40019,13 +36780,11 @@
           <t xml:space="preserve">SNATCH BLOCK 4 TONNE 4.5" </t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>4.00 Tonnes</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>17/03/2024</t>
@@ -40044,13 +36803,11 @@
 Date of thorough examination: 18/08/2023  Name of the person authenticating this report</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>5.00 Tonnes</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>18/08/2023</t>
@@ -40073,13 +36830,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40097,13 +36852,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40121,13 +36874,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40145,13 +36896,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40169,13 +36918,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40193,13 +36940,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40217,13 +36962,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40241,13 +36984,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40265,13 +37006,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40289,13 +37028,11 @@
           <t>10 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>ABZ/539613/0002</t>
@@ -40313,13 +37050,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40337,13 +37072,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40361,13 +37094,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40385,13 +37116,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40409,13 +37138,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40433,13 +37160,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40457,13 +37182,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40481,13 +37204,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40505,13 +37226,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40529,13 +37248,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40553,13 +37270,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40577,13 +37292,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40601,13 +37314,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40625,13 +37336,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40649,13 +37358,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40673,13 +37380,11 @@
           <t>16X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
           <t>2TONNE</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>ABZ/539613/0008</t>
@@ -40697,13 +37402,11 @@
           <t>2X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
           <t>5TONNE</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>ABZ/539613/0014</t>
@@ -40721,13 +37424,11 @@
           <t>2X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
           <t>5TONNE</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>ABZ/539613/0014</t>
@@ -40745,13 +37446,11 @@
           <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>ABZ/539613/0015</t>
@@ -40779,13 +37478,11 @@
           <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>ABZ/539613/0015</t>
@@ -40813,13 +37510,11 @@
           <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>ABZ/539613/0015</t>
@@ -40847,13 +37542,11 @@
           <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>ABZ/539613/0015</t>
@@ -40881,13 +37574,11 @@
           <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>ABZ/539613/0015</t>
@@ -40915,13 +37606,11 @@
           <t>6 X 1 TONNE X 0.5MTR EWL ROUND SLING (1MTR CIRC)</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
           <t>1 TONNE</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>ABZ/539613/0015</t>
@@ -40949,13 +37638,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -40983,13 +37670,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41017,13 +37702,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41051,13 +37734,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41085,13 +37766,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41119,13 +37798,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41153,13 +37830,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41187,13 +37862,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41221,13 +37894,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41255,13 +37926,11 @@
           <t>10X3TONNE X5MTR EWL ROUND SLING (10MTR CIRC)</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
           <t>3TONNE</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>ABZ/539613/0027</t>
@@ -41299,7 +37968,6 @@
           <t>4.1TONNE</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>ABZ/539613/0030</t>
@@ -41337,7 +38005,6 @@
           <t>4.1TONNE</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>ABZ/539613/0030</t>
@@ -41375,7 +38042,6 @@
           <t>4.1TONNE</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>ABZ/539613/0030</t>
@@ -41413,7 +38079,6 @@
           <t>4.1TONNE</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>ABZ/539613/0030</t>
@@ -41451,7 +38116,6 @@
           <t>4.1TONNE</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>ABZ/539613/0030</t>
@@ -41489,7 +38153,6 @@
           <t>4.1TONNE</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>ABZ/539613/0030</t>
@@ -41527,7 +38190,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41565,7 +38227,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41603,7 +38264,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41641,7 +38301,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41679,7 +38338,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41717,7 +38375,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41755,7 +38412,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41793,7 +38449,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41831,7 +38486,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41869,7 +38523,6 @@
           <t>1TONNE</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>ABZ/539613/0031</t>
@@ -41907,7 +38560,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -41945,7 +38597,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -41983,7 +38634,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42021,7 +38671,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42059,7 +38708,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42097,7 +38745,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42135,7 +38782,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42173,7 +38819,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42211,7 +38856,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42249,7 +38893,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42287,7 +38930,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42325,7 +38967,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42363,7 +39004,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42401,7 +39041,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42439,7 +39078,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42477,7 +39115,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42515,7 +39152,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42553,7 +39189,6 @@
           <t>3.25TONNE</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
           <t>ABZ/539613/0037</t>
@@ -42581,13 +39216,11 @@
           <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
           <t>8 TONNE</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
           <t>ABZ/539976/0001</t>
@@ -42605,13 +39238,11 @@
           <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
           <t>8 TONNE</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
           <t>ABZ/539976/0001</t>
@@ -42629,13 +39260,11 @@
           <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
           <t>8 TONNE</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
           <t>ABZ/539976/0002</t>
@@ -42653,13 +39282,11 @@
           <t>2 X SINGLE LEG WIRE ROPE SLING TO BS EN 13414-1</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
           <t>8 TONNE</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>ABZ/539976/0002</t>

--- a/database/Extraction_data.xlsx
+++ b/database/Extraction_data.xlsx
@@ -38685,11 +38685,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
@@ -38729,11 +38724,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
@@ -38773,11 +38763,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
@@ -38817,11 +38802,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
@@ -38865,12 +38845,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -38913,12 +38892,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -38961,12 +38939,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -39009,12 +38986,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -39057,12 +39033,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -39105,12 +39080,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -39153,12 +39127,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -39197,11 +39170,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
@@ -39241,11 +39209,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
@@ -39285,11 +39248,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
@@ -39329,11 +39287,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
@@ -39373,11 +39326,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
@@ -39417,11 +39365,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
@@ -39461,11 +39404,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
@@ -39505,11 +39443,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
@@ -39549,11 +39482,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
@@ -39593,11 +39521,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
@@ -39637,11 +39560,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
@@ -39681,11 +39599,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
@@ -39725,11 +39638,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
@@ -39769,11 +39677,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
@@ -39813,11 +39716,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
@@ -39857,11 +39755,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
@@ -39901,11 +39794,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
@@ -39945,11 +39833,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
@@ -39989,11 +39872,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
@@ -40033,11 +39911,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
@@ -40077,11 +39950,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
@@ -40121,11 +39989,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
@@ -40165,11 +40028,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
@@ -40209,11 +40067,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
@@ -40253,11 +40106,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
@@ -40297,11 +40145,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
@@ -40345,12 +40188,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40393,12 +40235,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40441,12 +40282,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40489,12 +40329,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40537,12 +40376,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40585,12 +40423,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40633,12 +40470,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40677,11 +40513,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
@@ -40721,11 +40552,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
@@ -40769,12 +40595,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40817,12 +40642,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>ABZ/012186/43094</t>
@@ -40861,11 +40685,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
@@ -40905,11 +40724,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
@@ -40949,11 +40763,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
@@ -40993,11 +40802,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
@@ -41041,12 +40845,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41089,12 +40892,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41137,12 +40939,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41185,12 +40986,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41233,12 +41033,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41281,12 +41080,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41329,12 +41127,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41377,12 +41174,11 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -41421,11 +41217,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
@@ -41465,11 +41256,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
@@ -41509,11 +41295,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
@@ -41553,11 +41334,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
@@ -41597,11 +41373,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
@@ -41641,11 +41412,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
@@ -41685,11 +41451,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
@@ -41729,11 +41490,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
@@ -41773,11 +41529,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
@@ -41817,11 +41568,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
@@ -41861,11 +41607,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
@@ -41905,11 +41646,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
@@ -41949,11 +41685,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
@@ -41993,11 +41724,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
@@ -42037,11 +41763,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
@@ -42081,11 +41802,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
@@ -42125,11 +41841,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
@@ -42169,11 +41880,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
@@ -42213,11 +41919,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
@@ -42257,11 +41958,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
@@ -42301,11 +41997,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
@@ -42345,11 +42036,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
@@ -42389,11 +42075,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
@@ -42424,7 +42105,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>RHINO</t>
+          <t>BLACK RHINO</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -42437,12 +42118,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -42481,11 +42161,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
@@ -42525,11 +42200,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
@@ -42569,11 +42239,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
@@ -42613,11 +42278,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
@@ -42657,11 +42317,6 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
@@ -42705,12 +42360,11 @@
           <t>Kilos</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Kilos</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Ridge Gear</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>ABZ/012185/43140</t>
@@ -42749,11 +42403,6 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
@@ -42797,14 +42446,9 @@
           <t>Tonnes</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Superclamp</t>
+          <t xml:space="preserve">Riley </t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -42841,11 +42485,6 @@
         </is>
       </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>Tonnes</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>Tonnes</t>
         </is>
@@ -51564,11 +51203,7 @@
           <t>6 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -51607,11 +51242,7 @@
           <t>6 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -51650,11 +51281,7 @@
           <t>6 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -51693,11 +51320,7 @@
           <t>6 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -51736,11 +51359,7 @@
           <t>6 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -51779,11 +51398,7 @@
           <t>6 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -51837,7 +51452,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J336" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -51880,7 +51499,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J337" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -51923,7 +51546,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J338" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -51966,7 +51593,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J339" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52009,7 +51640,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J340" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52052,7 +51687,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I341" t="inlineStr"/>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J341" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52095,7 +51734,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J342" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52138,7 +51781,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr"/>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J343" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52181,7 +51828,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J344" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52224,7 +51875,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J345" t="inlineStr">
         <is>
           <t>ABZ/543069/0031</t>
@@ -52267,7 +51922,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I346" t="inlineStr"/>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J346" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52310,7 +51969,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J347" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52353,7 +52016,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr"/>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J348" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52396,7 +52063,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I349" t="inlineStr"/>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J349" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52439,7 +52110,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I350" t="inlineStr"/>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J350" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52482,7 +52157,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I351" t="inlineStr"/>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J351" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52525,7 +52204,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J352" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52568,7 +52251,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J353" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52611,7 +52298,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J354" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52654,7 +52345,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J355" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52697,7 +52392,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J356" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52740,7 +52439,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J357" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52783,7 +52486,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I358" t="inlineStr"/>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J358" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52826,7 +52533,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J359" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52869,7 +52580,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J360" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52912,7 +52627,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J361" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52955,7 +52674,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J362" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -52998,7 +52721,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J363" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -53041,7 +52768,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J364" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -53084,7 +52815,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J365" t="inlineStr">
         <is>
           <t>ABZ/543069/0032</t>
@@ -53127,7 +52862,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J366" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53170,7 +52909,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J367" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53213,7 +52956,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J368" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53256,7 +53003,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53299,7 +53050,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J370" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53342,7 +53097,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J371" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53385,7 +53144,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J372" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53428,7 +53191,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J373" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53471,7 +53238,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J374" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53514,7 +53285,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J375" t="inlineStr">
         <is>
           <t>ABZ/543069/0033</t>
@@ -53557,7 +53332,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J376" t="inlineStr">
         <is>
           <t>ABZ/543069/0034</t>
@@ -53600,7 +53379,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J377" t="inlineStr">
         <is>
           <t>ABZ/543069/0034</t>
@@ -53643,7 +53426,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I378" t="inlineStr"/>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J378" t="inlineStr">
         <is>
           <t>ABZ/543069/0034</t>
@@ -53686,7 +53473,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J379" t="inlineStr">
         <is>
           <t>ABZ/543069/0034</t>
@@ -53729,7 +53520,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J380" t="inlineStr">
         <is>
           <t>ABZ/543069/0034</t>
@@ -53772,7 +53567,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J381" t="inlineStr">
         <is>
           <t>ABZ/543069/0034</t>
@@ -53815,7 +53614,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I382" t="inlineStr"/>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J382" t="inlineStr">
         <is>
           <t>ABZ/543069/0035</t>
@@ -53858,7 +53661,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I383" t="inlineStr"/>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J383" t="inlineStr">
         <is>
           <t>ABZ/543069/0035</t>
@@ -53901,7 +53708,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J384" t="inlineStr">
         <is>
           <t>ABZ/543069/0035</t>
@@ -53944,7 +53755,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J385" t="inlineStr">
         <is>
           <t>ABZ/543069/0035</t>
@@ -53987,7 +53802,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I386" t="inlineStr"/>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J386" t="inlineStr">
         <is>
           <t>ABZ/543069/0035</t>
@@ -54030,7 +53849,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I387" t="inlineStr"/>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>ABZ/543069/0035</t>
@@ -54073,7 +53896,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I388" t="inlineStr"/>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J388" t="inlineStr">
         <is>
           <t>ABZ/543069/0036</t>
@@ -54116,7 +53943,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I389" t="inlineStr"/>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J389" t="inlineStr">
         <is>
           <t>ABZ/543069/0036</t>
@@ -54159,7 +53990,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I390" t="inlineStr"/>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J390" t="inlineStr">
         <is>
           <t>ABZ/543069/0036</t>
@@ -54202,7 +54037,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I391" t="inlineStr"/>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J391" t="inlineStr">
         <is>
           <t>ABZ/543069/0036</t>
@@ -54245,7 +54084,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I392" t="inlineStr"/>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J392" t="inlineStr">
         <is>
           <t>ABZ/543069/0036</t>
@@ -54288,7 +54131,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J393" t="inlineStr">
         <is>
           <t>ABZ/543069/0036</t>
@@ -54331,7 +54178,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I394" t="inlineStr"/>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J394" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54374,7 +54225,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I395" t="inlineStr"/>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J395" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54417,7 +54272,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I396" t="inlineStr"/>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J396" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54460,7 +54319,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I397" t="inlineStr"/>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J397" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54503,7 +54366,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I398" t="inlineStr"/>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J398" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54546,7 +54413,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I399" t="inlineStr"/>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J399" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54589,7 +54460,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I400" t="inlineStr"/>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J400" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54632,7 +54507,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I401" t="inlineStr"/>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J401" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54675,7 +54554,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I402" t="inlineStr"/>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J402" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54718,7 +54601,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I403" t="inlineStr"/>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J403" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54761,7 +54648,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I404" t="inlineStr"/>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J404" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54804,7 +54695,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I405" t="inlineStr"/>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J405" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54847,7 +54742,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I406" t="inlineStr"/>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J406" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54890,7 +54789,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I407" t="inlineStr"/>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J407" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54933,7 +54836,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I408" t="inlineStr"/>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J408" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -54976,7 +54883,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I409" t="inlineStr"/>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J409" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -55019,7 +54930,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I410" t="inlineStr"/>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J410" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -55062,7 +54977,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I411" t="inlineStr"/>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J411" t="inlineStr">
         <is>
           <t>ABZ/543069/0037</t>
@@ -55105,7 +55024,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I412" t="inlineStr"/>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J412" t="inlineStr">
         <is>
           <t>ABZ/543069/0038</t>
@@ -55148,7 +55071,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I413" t="inlineStr"/>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J413" t="inlineStr">
         <is>
           <t>ABZ/543069/0038</t>
@@ -55191,7 +55118,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I414" t="inlineStr"/>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J414" t="inlineStr">
         <is>
           <t>ABZ/543069/0038</t>
@@ -55234,7 +55165,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I415" t="inlineStr"/>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J415" t="inlineStr">
         <is>
           <t>ABZ/543069/0038</t>
@@ -55277,7 +55212,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I416" t="inlineStr"/>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J416" t="inlineStr">
         <is>
           <t>ABZ/543069/0038</t>
@@ -55320,7 +55259,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I417" t="inlineStr"/>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J417" t="inlineStr">
         <is>
           <t>ABZ/543069/0038</t>
@@ -60771,7 +60714,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I565" t="inlineStr"/>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J565" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -60814,7 +60761,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I566" t="inlineStr"/>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J566" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -60857,7 +60808,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I567" t="inlineStr"/>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J567" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -60900,7 +60855,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I568" t="inlineStr"/>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J568" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -60943,7 +60902,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I569" t="inlineStr"/>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J569" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -60986,7 +60949,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I570" t="inlineStr"/>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J570" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61029,7 +60996,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I571" t="inlineStr"/>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J571" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61072,7 +61043,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I572" t="inlineStr"/>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J572" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61115,7 +61090,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I573" t="inlineStr"/>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J573" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61158,7 +61137,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I574" t="inlineStr"/>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J574" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61201,7 +61184,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I575" t="inlineStr"/>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J575" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61244,7 +61231,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I576" t="inlineStr"/>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J576" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61287,7 +61278,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I577" t="inlineStr"/>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J577" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61330,7 +61325,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I578" t="inlineStr"/>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J578" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61373,7 +61372,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I579" t="inlineStr"/>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J579" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61416,7 +61419,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I580" t="inlineStr"/>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J580" t="inlineStr">
         <is>
           <t>ABZ/543074/0024</t>
@@ -61459,7 +61466,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I581" t="inlineStr"/>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J581" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61502,7 +61513,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I582" t="inlineStr"/>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J582" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61545,7 +61560,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I583" t="inlineStr"/>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J583" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61588,7 +61607,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I584" t="inlineStr"/>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J584" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61631,7 +61654,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I585" t="inlineStr"/>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J585" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61674,7 +61701,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I586" t="inlineStr"/>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J586" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61717,7 +61748,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I587" t="inlineStr"/>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J587" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61760,7 +61795,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I588" t="inlineStr"/>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J588" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61803,7 +61842,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I589" t="inlineStr"/>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J589" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61846,7 +61889,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I590" t="inlineStr"/>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J590" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61889,7 +61936,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I591" t="inlineStr"/>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J591" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61932,7 +61983,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I592" t="inlineStr"/>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J592" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -61975,7 +62030,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I593" t="inlineStr"/>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J593" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62018,7 +62077,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I594" t="inlineStr"/>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J594" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62061,7 +62124,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I595" t="inlineStr"/>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J595" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62104,7 +62171,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I596" t="inlineStr"/>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J596" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62147,7 +62218,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I597" t="inlineStr"/>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J597" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62190,7 +62265,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I598" t="inlineStr"/>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J598" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62233,7 +62312,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I599" t="inlineStr"/>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J599" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62276,7 +62359,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I600" t="inlineStr"/>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J600" t="inlineStr">
         <is>
           <t>ABZ/543074/0025</t>
@@ -62319,7 +62406,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I601" t="inlineStr"/>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J601" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62362,7 +62453,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I602" t="inlineStr"/>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J602" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62405,7 +62500,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I603" t="inlineStr"/>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J603" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62448,7 +62547,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I604" t="inlineStr"/>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J604" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62491,7 +62594,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I605" t="inlineStr"/>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J605" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62534,7 +62641,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I606" t="inlineStr"/>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J606" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62577,7 +62688,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I607" t="inlineStr"/>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J607" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62620,7 +62735,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I608" t="inlineStr"/>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J608" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62663,7 +62782,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I609" t="inlineStr"/>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J609" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62706,7 +62829,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I610" t="inlineStr"/>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J610" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62749,7 +62876,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I611" t="inlineStr"/>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J611" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62792,7 +62923,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I612" t="inlineStr"/>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J612" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62835,7 +62970,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I613" t="inlineStr"/>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J613" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62878,7 +63017,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I614" t="inlineStr"/>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J614" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62921,7 +63064,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I615" t="inlineStr"/>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J615" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -62964,7 +63111,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I616" t="inlineStr"/>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J616" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -63007,7 +63158,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I617" t="inlineStr"/>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J617" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -63050,7 +63205,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I618" t="inlineStr"/>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J618" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -63093,7 +63252,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I619" t="inlineStr"/>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J619" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -63136,7 +63299,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I620" t="inlineStr"/>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J620" t="inlineStr">
         <is>
           <t>ABZ/543074/0026</t>
@@ -63179,7 +63346,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I621" t="inlineStr"/>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J621" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63222,7 +63393,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I622" t="inlineStr"/>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J622" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63265,7 +63440,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I623" t="inlineStr"/>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J623" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63308,7 +63487,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I624" t="inlineStr"/>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J624" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63351,7 +63534,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I625" t="inlineStr"/>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J625" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63394,7 +63581,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I626" t="inlineStr"/>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J626" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63437,7 +63628,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I627" t="inlineStr"/>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J627" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63480,7 +63675,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I628" t="inlineStr"/>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J628" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63523,7 +63722,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I629" t="inlineStr"/>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J629" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63566,7 +63769,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I630" t="inlineStr"/>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J630" t="inlineStr">
         <is>
           <t>ABZ/543074/0027</t>
@@ -63609,7 +63816,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I631" t="inlineStr"/>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J631" t="inlineStr">
         <is>
           <t>ABZ/543074/0028</t>
@@ -63652,7 +63863,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I632" t="inlineStr"/>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J632" t="inlineStr">
         <is>
           <t>ABZ/543074/0028</t>
@@ -63695,7 +63910,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I633" t="inlineStr"/>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J633" t="inlineStr">
         <is>
           <t>ABZ/543074/0028</t>
@@ -63738,7 +63957,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I634" t="inlineStr"/>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J634" t="inlineStr">
         <is>
           <t>ABZ/543074/0028</t>
@@ -63781,7 +64004,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I635" t="inlineStr"/>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J635" t="inlineStr">
         <is>
           <t>ABZ/543074/0028</t>
@@ -63824,7 +64051,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I636" t="inlineStr"/>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J636" t="inlineStr">
         <is>
           <t>ABZ/543074/0028</t>
@@ -63867,7 +64098,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I637" t="inlineStr"/>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J637" t="inlineStr">
         <is>
           <t>ABZ/543074/0029</t>
@@ -63910,7 +64145,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I638" t="inlineStr"/>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J638" t="inlineStr">
         <is>
           <t>ABZ/543074/0029</t>
@@ -63953,7 +64192,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I639" t="inlineStr"/>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J639" t="inlineStr">
         <is>
           <t>ABZ/543074/0029</t>
@@ -63996,7 +64239,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I640" t="inlineStr"/>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J640" t="inlineStr">
         <is>
           <t>ABZ/543074/0029</t>
@@ -64039,7 +64286,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I641" t="inlineStr"/>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J641" t="inlineStr">
         <is>
           <t>ABZ/543074/0029</t>
@@ -64082,7 +64333,11 @@
           <t>TONNE</t>
         </is>
       </c>
-      <c r="I642" t="inlineStr"/>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>Crosby</t>
+        </is>
+      </c>
       <c r="J642" t="inlineStr">
         <is>
           <t>ABZ/543074/0029</t>
@@ -64110,11 +64365,7 @@
           <t>4 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -64153,11 +64404,7 @@
           <t>4 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -64196,11 +64443,7 @@
           <t>4 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -64239,11 +64482,7 @@
           <t>4 X A344 17MM MASTER LINK</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>A344</t>
-        </is>
-      </c>
+      <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr">
         <is>
           <t>4.1</t>
